--- a/data/T31R11_data.xlsx
+++ b/data/T31R11_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kara Fox\Documents\Kara GLO\RStudio\GLO_sage\Sage_GLO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770FBD8D-E279-4CB5-AEAD-34F6385C8FB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA19F4B2-0DE4-4384-B9F3-530E4051558B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-5295" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-5295" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1940Survey" sheetId="1" r:id="rId1"/>
@@ -312,9 +312,6 @@
     <t>Intersect the S bounday of Sangre de Cristo Land Grant</t>
   </si>
   <si>
-    <t>31-11-1-W</t>
-  </si>
-  <si>
     <t>Center of RG defines the west boundary of the Sangre de Cristo Land Grant. No remaining evidence of the original closing corner.</t>
   </si>
   <si>
@@ -363,9 +360,6 @@
     <t>No beaing trees</t>
   </si>
   <si>
-    <t>31-11-2-S</t>
-  </si>
-  <si>
     <t xml:space="preserve">No remaining evidence of original stone or pits </t>
   </si>
   <si>
@@ -378,9 +372,6 @@
     <t xml:space="preserve">No remaining evidence of original closing corner </t>
   </si>
   <si>
-    <t>31-11-2-W</t>
-  </si>
-  <si>
     <t>31-11-34-W</t>
   </si>
   <si>
@@ -411,12 +402,6 @@
     <t>31-11-10-W</t>
   </si>
   <si>
-    <t>31-11-3-S</t>
-  </si>
-  <si>
-    <t>31-11-3-W</t>
-  </si>
-  <si>
     <t>31-11-33-W</t>
   </si>
   <si>
@@ -438,18 +423,6 @@
     <t>31-11-16-W</t>
   </si>
   <si>
-    <t>31-11-9-S</t>
-  </si>
-  <si>
-    <t>31-11-9-W</t>
-  </si>
-  <si>
-    <t>31-11-4-S</t>
-  </si>
-  <si>
-    <t>31-11-4-W</t>
-  </si>
-  <si>
     <t>31-11-32-W</t>
   </si>
   <si>
@@ -495,24 +468,6 @@
     <t>31-11-17-W</t>
   </si>
   <si>
-    <t>31-11-8-S</t>
-  </si>
-  <si>
-    <t>31-11-7-S</t>
-  </si>
-  <si>
-    <t>31-11-8-W</t>
-  </si>
-  <si>
-    <t>31-11-5-S</t>
-  </si>
-  <si>
-    <t>31-11-6-S</t>
-  </si>
-  <si>
-    <t>31-11-5-W</t>
-  </si>
-  <si>
     <t>RIOGRANDE</t>
   </si>
   <si>
@@ -525,9 +480,6 @@
     <t>Undergrowth, willow and weeds</t>
   </si>
   <si>
-    <t>31-11-2</t>
-  </si>
-  <si>
     <t>31-11-31-W</t>
   </si>
   <si>
@@ -552,12 +504,6 @@
     <t>31-11-18-W</t>
   </si>
   <si>
-    <t>31-11-7-W</t>
-  </si>
-  <si>
-    <t>31-11-6-W</t>
-  </si>
-  <si>
     <t>Grass poor</t>
   </si>
   <si>
@@ -648,7 +594,61 @@
     <t>Could be 31-11-10-W</t>
   </si>
   <si>
-    <t>Could be 31-11-1-W</t>
+    <t>31-11-01-W</t>
+  </si>
+  <si>
+    <t>Could be 31-11-01-W</t>
+  </si>
+  <si>
+    <t>31-11-02-S</t>
+  </si>
+  <si>
+    <t>31-11-02-W</t>
+  </si>
+  <si>
+    <t>31-11-03-S</t>
+  </si>
+  <si>
+    <t>31-11-03-W</t>
+  </si>
+  <si>
+    <t>31-11-04-S</t>
+  </si>
+  <si>
+    <t>31-11-04-W</t>
+  </si>
+  <si>
+    <t>31-11-05-S</t>
+  </si>
+  <si>
+    <t>31-11-05-W</t>
+  </si>
+  <si>
+    <t>31-11-06-S</t>
+  </si>
+  <si>
+    <t>31-11-07-S</t>
+  </si>
+  <si>
+    <t>31-11-08-S</t>
+  </si>
+  <si>
+    <t>31-11-08-W</t>
+  </si>
+  <si>
+    <t>31-11-09-S</t>
+  </si>
+  <si>
+    <t>31-11-09-W</t>
+  </si>
+  <si>
+    <t>31-11-02</t>
+  </si>
+  <si>
+    <t>31-11-07-W</t>
+  </si>
+  <si>
+    <t>31-11-06-W</t>
   </si>
 </sst>
 </file>
@@ -962,8 +962,8 @@
   </sheetPr>
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0">
-      <selection activeCell="I292" sqref="I292"/>
+    <sheetView topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="B280" sqref="B280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1043,7 +1043,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C3" s="6">
         <v>40.82</v>
@@ -1083,7 +1083,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C4" s="6">
         <v>81.650000000000006</v>
@@ -1103,7 +1103,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>25</v>
@@ -1126,7 +1126,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C6" s="6">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C7" s="6">
         <v>17.5</v>
@@ -1166,7 +1166,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C8" s="6">
         <v>39.47</v>
@@ -1189,7 +1189,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C9" s="7">
         <f>C8+39.7</f>
@@ -1210,7 +1210,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C10" s="7">
         <f>C8+40.15</f>
@@ -1231,7 +1231,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>25</v>
@@ -1254,7 +1254,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="C12" s="6">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="C13" s="6">
         <v>2.2999999999999998</v>
@@ -1294,7 +1294,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="C14" s="6">
         <v>29.65</v>
@@ -1314,7 +1314,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="C15" s="6">
         <v>40.57</v>
@@ -1337,7 +1337,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="C16" s="7">
         <f>C15+8</f>
@@ -1358,7 +1358,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="C17" s="7">
         <f>C15+37.5</f>
@@ -1379,7 +1379,7 @@
         <v>23</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="C18" s="7">
         <f>C15+39.85</f>
@@ -1400,7 +1400,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>25</v>
@@ -1423,7 +1423,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="C20" s="6">
         <v>0</v>
@@ -1443,7 +1443,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="C21" s="6">
         <v>25.5</v>
@@ -1463,7 +1463,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="C22" s="6">
         <v>35.700000000000003</v>
@@ -1486,7 +1486,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="C23" s="7">
         <f>C22+39.69</f>
@@ -1510,7 +1510,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>25</v>
@@ -2576,7 +2576,7 @@
         <v>18</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C75" s="6">
         <v>0</v>
@@ -2596,7 +2596,7 @@
         <v>23</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C76" s="6">
         <v>37.549999999999997</v>
@@ -2611,7 +2611,7 @@
         <v>22</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -2619,7 +2619,7 @@
         <v>24</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>25</v>
@@ -2642,7 +2642,7 @@
         <v>18</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C78" s="6">
         <v>0</v>
@@ -2662,7 +2662,7 @@
         <v>21</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C79" s="6">
         <v>40.18</v>
@@ -2685,7 +2685,7 @@
         <v>23</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C80" s="7">
         <f>C79+40.16</f>
@@ -2706,7 +2706,7 @@
         <v>24</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>25</v>
@@ -2729,7 +2729,7 @@
         <v>18</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C82" s="6">
         <v>0</v>
@@ -2741,7 +2741,7 @@
         <v>19</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -2749,7 +2749,7 @@
         <v>21</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C83" s="6">
         <v>40.54</v>
@@ -2769,7 +2769,7 @@
         <v>23</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C84" s="6">
         <v>81.09</v>
@@ -2789,7 +2789,7 @@
         <v>24</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>25</v>
@@ -2804,7 +2804,7 @@
         <v>27</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -2812,7 +2812,7 @@
         <v>18</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C86" s="6">
         <v>0</v>
@@ -2832,7 +2832,7 @@
         <v>21</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C87" s="6">
         <v>40.11</v>
@@ -2855,7 +2855,7 @@
         <v>23</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C88" s="7">
         <f>C87+40.08</f>
@@ -2876,7 +2876,7 @@
         <v>24</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>25</v>
@@ -2899,7 +2899,7 @@
         <v>18</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C90" s="6">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>21</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C91" s="6">
         <v>40.090000000000003</v>
@@ -2942,7 +2942,7 @@
         <v>23</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C92" s="7">
         <f>C91+40.08</f>
@@ -2963,7 +2963,7 @@
         <v>24</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>25</v>
@@ -2986,7 +2986,7 @@
         <v>18</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C94" s="6">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>42</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -3009,7 +3009,7 @@
         <v>21</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C95" s="6">
         <v>40.14</v>
@@ -3032,7 +3032,7 @@
         <v>23</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C96" s="7">
         <f>C95+40.16</f>
@@ -3053,7 +3053,7 @@
         <v>24</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>25</v>
@@ -3076,7 +3076,7 @@
         <v>18</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C98" s="6">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>18</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C99" s="6">
         <v>15.6</v>
@@ -3116,7 +3116,7 @@
         <v>21</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C100" s="6">
         <v>39.29</v>
@@ -3136,7 +3136,7 @@
         <v>23</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C101" s="6">
         <v>78.58</v>
@@ -3156,7 +3156,7 @@
         <v>24</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>25</v>
@@ -3179,7 +3179,7 @@
         <v>18</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C103" s="6">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>21</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C104" s="6">
         <v>40.71</v>
@@ -3219,7 +3219,7 @@
         <v>23</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C105" s="6">
         <v>81.42</v>
@@ -3239,7 +3239,7 @@
         <v>24</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>25</v>
@@ -3254,7 +3254,7 @@
         <v>27</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
@@ -3262,7 +3262,7 @@
         <v>18</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C107" s="6">
         <v>0</v>
@@ -3282,7 +3282,7 @@
         <v>18</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C108" s="6">
         <v>27</v>
@@ -3294,7 +3294,7 @@
         <v>19</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
@@ -3302,7 +3302,7 @@
         <v>21</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C109" s="6">
         <v>35.25</v>
@@ -3322,7 +3322,7 @@
         <v>23</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C110" s="6">
         <v>40.14</v>
@@ -3342,7 +3342,7 @@
         <v>24</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>25</v>
@@ -3365,7 +3365,7 @@
         <v>18</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C112" s="6">
         <v>0</v>
@@ -3377,7 +3377,7 @@
         <v>19</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="113" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -3385,7 +3385,7 @@
         <v>21</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C113" s="6">
         <v>40.130000000000003</v>
@@ -3397,7 +3397,7 @@
         <v>19</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O113" s="5" t="s">
         <v>30</v>
@@ -3408,7 +3408,7 @@
         <v>23</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C114" s="7">
         <f>C113+40.08</f>
@@ -3421,7 +3421,7 @@
         <v>19</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="115" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -3429,7 +3429,7 @@
         <v>24</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>25</v>
@@ -3444,7 +3444,7 @@
         <v>27</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -3452,7 +3452,7 @@
         <v>18</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="C116" s="6">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>21</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="C117" s="6">
         <v>40</v>
@@ -3487,7 +3487,7 @@
         <v>22</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="118" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -3495,7 +3495,7 @@
         <v>23</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="C118" s="6">
         <v>62.71</v>
@@ -3507,10 +3507,10 @@
         <v>19</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="119" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -3518,7 +3518,7 @@
         <v>24</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>25</v>
@@ -3536,7 +3536,7 @@
         <v>28</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="120" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -3544,7 +3544,7 @@
         <v>18</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="C120" s="6">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>19</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -3564,7 +3564,7 @@
         <v>21</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="C121" s="6">
         <v>40.14</v>
@@ -3587,7 +3587,7 @@
         <v>23</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="C122" s="7">
         <f>C121+39.92</f>
@@ -3608,7 +3608,7 @@
         <v>24</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>25</v>
@@ -3631,7 +3631,7 @@
         <v>18</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C124" s="6">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>19</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="125" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -3651,7 +3651,7 @@
         <v>21</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C125" s="6">
         <v>40.83</v>
@@ -3674,7 +3674,7 @@
         <v>23</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C126" s="7">
         <f>C125+39.69</f>
@@ -3695,7 +3695,7 @@
         <v>24</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>25</v>
@@ -3710,7 +3710,7 @@
         <v>27</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="128" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -3718,7 +3718,7 @@
         <v>18</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C128" s="6">
         <v>0</v>
@@ -3738,7 +3738,7 @@
         <v>21</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C129" s="6">
         <v>40.18</v>
@@ -3758,7 +3758,7 @@
         <v>23</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C130" s="6">
         <v>80.349999999999994</v>
@@ -3778,7 +3778,7 @@
         <v>24</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>25</v>
@@ -3793,7 +3793,7 @@
         <v>27</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="132" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -3801,7 +3801,7 @@
         <v>18</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C132" s="6">
         <v>0</v>
@@ -3821,7 +3821,7 @@
         <v>21</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C133" s="6">
         <v>40.22</v>
@@ -3844,7 +3844,7 @@
         <v>23</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C134" s="7">
         <f>C133+40.24</f>
@@ -3865,7 +3865,7 @@
         <v>24</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>25</v>
@@ -3880,7 +3880,7 @@
         <v>27</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="136" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -3888,7 +3888,7 @@
         <v>18</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C136" s="6">
         <v>0</v>
@@ -3908,7 +3908,7 @@
         <v>21</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C137" s="6">
         <v>39.979999999999997</v>
@@ -3928,7 +3928,7 @@
         <v>23</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C138" s="6">
         <v>79.95</v>
@@ -3948,7 +3948,7 @@
         <v>24</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>25</v>
@@ -3963,7 +3963,7 @@
         <v>27</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="140" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -3971,7 +3971,7 @@
         <v>18</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C140" s="6">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>21</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C141" s="6">
         <v>39.99</v>
@@ -4014,7 +4014,7 @@
         <v>23</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C142" s="7">
         <f>C141+40.15</f>
@@ -4035,7 +4035,7 @@
         <v>24</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>25</v>
@@ -4050,7 +4050,7 @@
         <v>27</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="144" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -4058,7 +4058,7 @@
         <v>18</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C144" s="6">
         <v>0</v>
@@ -4078,7 +4078,7 @@
         <v>21</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C145" s="6">
         <v>40</v>
@@ -4098,7 +4098,7 @@
         <v>23</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C146" s="6">
         <v>80</v>
@@ -4118,7 +4118,7 @@
         <v>24</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>25</v>
@@ -4133,7 +4133,7 @@
         <v>27</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="148" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -4141,7 +4141,7 @@
         <v>18</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C148" s="6">
         <v>0</v>
@@ -4161,7 +4161,7 @@
         <v>21</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C149" s="6">
         <v>40.14</v>
@@ -4184,7 +4184,7 @@
         <v>23</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C150" s="7">
         <f>C149+40.15</f>
@@ -4205,7 +4205,7 @@
         <v>24</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>25</v>
@@ -4220,7 +4220,7 @@
         <v>27</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="152" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -4228,7 +4228,7 @@
         <v>18</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C152" s="6">
         <v>0</v>
@@ -4248,7 +4248,7 @@
         <v>21</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C153" s="6">
         <v>39.96</v>
@@ -4268,7 +4268,7 @@
         <v>23</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C154" s="6">
         <v>79.930000000000007</v>
@@ -4288,7 +4288,7 @@
         <v>24</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>25</v>
@@ -4303,7 +4303,7 @@
         <v>27</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="156" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -4311,7 +4311,7 @@
         <v>18</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C156" s="6">
         <v>0</v>
@@ -4331,7 +4331,7 @@
         <v>21</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C157" s="6">
         <v>40.08</v>
@@ -4351,7 +4351,7 @@
         <v>23</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C158" s="6">
         <v>80.17</v>
@@ -4371,7 +4371,7 @@
         <v>24</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>25</v>
@@ -4386,7 +4386,7 @@
         <v>27</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="160" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -4394,7 +4394,7 @@
         <v>18</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="C160" s="6">
         <v>0</v>
@@ -4414,7 +4414,7 @@
         <v>21</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="C161" s="6">
         <v>40.31</v>
@@ -4434,7 +4434,7 @@
         <v>23</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="C162" s="6">
         <v>80.62</v>
@@ -4454,7 +4454,7 @@
         <v>24</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>25</v>
@@ -4469,7 +4469,7 @@
         <v>27</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="164" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -4477,7 +4477,7 @@
         <v>18</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="C164" s="6">
         <v>0</v>
@@ -4497,7 +4497,7 @@
         <v>21</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="C165" s="6">
         <v>40.299999999999997</v>
@@ -4520,7 +4520,7 @@
         <v>23</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="C166" s="7">
         <f>C165+40.13</f>
@@ -4541,7 +4541,7 @@
         <v>24</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>25</v>
@@ -4556,7 +4556,7 @@
         <v>27</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="168" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -4564,7 +4564,7 @@
         <v>18</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C168" s="6">
         <v>0</v>
@@ -4584,7 +4584,7 @@
         <v>21</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C169" s="6">
         <v>40.229999999999997</v>
@@ -4607,7 +4607,7 @@
         <v>23</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C170" s="7">
         <f>C169+40.23</f>
@@ -4628,7 +4628,7 @@
         <v>24</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>25</v>
@@ -4651,7 +4651,7 @@
         <v>18</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C172" s="6">
         <v>0</v>
@@ -4671,7 +4671,7 @@
         <v>21</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C173" s="6">
         <v>40.159999999999997</v>
@@ -4691,7 +4691,7 @@
         <v>23</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C174" s="6">
         <v>80.33</v>
@@ -4711,7 +4711,7 @@
         <v>24</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>25</v>
@@ -4726,7 +4726,7 @@
         <v>27</v>
       </c>
       <c r="H175" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="176" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -4734,7 +4734,7 @@
         <v>18</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C176" s="6">
         <v>0</v>
@@ -4754,7 +4754,7 @@
         <v>21</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C177" s="6">
         <v>40.19</v>
@@ -4777,7 +4777,7 @@
         <v>23</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C178" s="7">
         <f>C177+40.19</f>
@@ -4798,7 +4798,7 @@
         <v>24</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>25</v>
@@ -4810,7 +4810,7 @@
         <v>19</v>
       </c>
       <c r="H179" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="180" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -4818,7 +4818,7 @@
         <v>18</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C180" s="6">
         <v>0</v>
@@ -4838,7 +4838,7 @@
         <v>21</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C181" s="6">
         <v>40.47</v>
@@ -4858,7 +4858,7 @@
         <v>23</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C182" s="6">
         <v>80.94</v>
@@ -4878,7 +4878,7 @@
         <v>24</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>25</v>
@@ -4893,7 +4893,7 @@
         <v>27</v>
       </c>
       <c r="H183" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="184" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -4901,7 +4901,7 @@
         <v>18</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C184" s="6">
         <v>0</v>
@@ -4921,7 +4921,7 @@
         <v>21</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C185" s="6">
         <v>40.28</v>
@@ -4944,7 +4944,7 @@
         <v>23</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C186" s="7">
         <f>C185+40.17</f>
@@ -4965,7 +4965,7 @@
         <v>24</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>25</v>
@@ -4980,7 +4980,7 @@
         <v>27</v>
       </c>
       <c r="H187" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="188" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -4988,7 +4988,7 @@
         <v>18</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C188" s="6">
         <v>0</v>
@@ -5008,7 +5008,7 @@
         <v>21</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C189" s="6">
         <v>40.619999999999997</v>
@@ -5028,7 +5028,7 @@
         <v>23</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C190" s="6">
         <v>81.239999999999995</v>
@@ -5048,7 +5048,7 @@
         <v>24</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>25</v>
@@ -5063,7 +5063,7 @@
         <v>27</v>
       </c>
       <c r="H191" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="192" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -5071,7 +5071,7 @@
         <v>18</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C192" s="6">
         <v>0</v>
@@ -5091,7 +5091,7 @@
         <v>21</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C193" s="6">
         <v>40.520000000000003</v>
@@ -5114,7 +5114,7 @@
         <v>23</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C194" s="7">
         <f>C193+39.56</f>
@@ -5135,7 +5135,7 @@
         <v>24</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>25</v>
@@ -5150,7 +5150,7 @@
         <v>27</v>
       </c>
       <c r="H195" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="196" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -5158,7 +5158,7 @@
         <v>18</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="C196" s="6">
         <v>0</v>
@@ -5178,7 +5178,7 @@
         <v>21</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="C197" s="6">
         <v>40.68</v>
@@ -5198,7 +5198,7 @@
         <v>23</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="C198" s="6">
         <v>81.37</v>
@@ -5218,7 +5218,7 @@
         <v>24</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>25</v>
@@ -5233,7 +5233,7 @@
         <v>27</v>
       </c>
       <c r="H199" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="200" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -5241,7 +5241,7 @@
         <v>18</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="C200" s="6">
         <v>0</v>
@@ -5261,7 +5261,7 @@
         <v>21</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="C201" s="6">
         <v>40.729999999999997</v>
@@ -5284,7 +5284,7 @@
         <v>23</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="C202" s="7">
         <f>C201+39.92</f>
@@ -5305,7 +5305,7 @@
         <v>24</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>25</v>
@@ -5320,7 +5320,7 @@
         <v>27</v>
       </c>
       <c r="H203" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="204" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -5328,7 +5328,7 @@
         <v>18</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="C204" s="6">
         <v>0</v>
@@ -5348,7 +5348,7 @@
         <v>21</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="C205" s="6">
         <v>40.299999999999997</v>
@@ -5368,7 +5368,7 @@
         <v>23</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="C206" s="6">
         <v>80.61</v>
@@ -5388,7 +5388,7 @@
         <v>24</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>25</v>
@@ -5403,7 +5403,7 @@
         <v>27</v>
       </c>
       <c r="H207" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="208" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -5411,7 +5411,7 @@
         <v>18</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="C208" s="6">
         <v>0</v>
@@ -5423,7 +5423,7 @@
         <v>19</v>
       </c>
       <c r="H208" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="209" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -5431,7 +5431,7 @@
         <v>21</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="C209" s="6">
         <v>40.1</v>
@@ -5454,7 +5454,7 @@
         <v>23</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="C210" s="7">
         <f>C209+40.36</f>
@@ -5475,7 +5475,7 @@
         <v>24</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="C211" s="6" t="s">
         <v>25</v>
@@ -5490,7 +5490,7 @@
         <v>27</v>
       </c>
       <c r="H211" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="212" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -5498,7 +5498,7 @@
         <v>18</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C212" s="6">
         <v>0</v>
@@ -5518,7 +5518,7 @@
         <v>21</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C213" s="6">
         <v>40.950000000000003</v>
@@ -5541,7 +5541,7 @@
         <v>23</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C214" s="7">
         <f>C213+40.17</f>
@@ -5562,7 +5562,7 @@
         <v>24</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C215" s="6" t="s">
         <v>25</v>
@@ -5577,7 +5577,7 @@
         <v>27</v>
       </c>
       <c r="H215" s="5" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="216" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -5585,7 +5585,7 @@
         <v>18</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C216" s="6">
         <v>0</v>
@@ -5605,7 +5605,7 @@
         <v>21</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C217" s="6">
         <v>39.5</v>
@@ -5625,7 +5625,7 @@
         <v>23</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C218" s="6">
         <v>78.989999999999995</v>
@@ -5645,7 +5645,7 @@
         <v>24</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C219" s="6" t="s">
         <v>25</v>
@@ -5660,10 +5660,10 @@
         <v>27</v>
       </c>
       <c r="H219" s="5" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="I219" s="8" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="220" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -5671,7 +5671,7 @@
         <v>18</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C220" s="6">
         <v>0</v>
@@ -5691,7 +5691,7 @@
         <v>21</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C221" s="6">
         <v>40.64</v>
@@ -5711,7 +5711,7 @@
         <v>23</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C222" s="6">
         <v>80.11</v>
@@ -5731,7 +5731,7 @@
         <v>24</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C223" s="6" t="s">
         <v>25</v>
@@ -5746,7 +5746,7 @@
         <v>27</v>
       </c>
       <c r="H223" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="224" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -5754,7 +5754,7 @@
         <v>18</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C224" s="6">
         <v>0</v>
@@ -5774,7 +5774,7 @@
         <v>21</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C225" s="6">
         <v>40.18</v>
@@ -5794,7 +5794,7 @@
         <v>23</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C226" s="6">
         <v>80.05</v>
@@ -5814,7 +5814,7 @@
         <v>24</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C227" s="6" t="s">
         <v>25</v>
@@ -5829,7 +5829,7 @@
         <v>27</v>
       </c>
       <c r="H227" s="5" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="228" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -5837,7 +5837,7 @@
         <v>18</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C228" s="6">
         <v>0</v>
@@ -5857,7 +5857,7 @@
         <v>21</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C229" s="6">
         <v>39.56</v>
@@ -5877,7 +5877,7 @@
         <v>23</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C230" s="6">
         <v>79.13</v>
@@ -5897,7 +5897,7 @@
         <v>24</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C231" s="6" t="s">
         <v>25</v>
@@ -5912,7 +5912,7 @@
         <v>27</v>
       </c>
       <c r="H231" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="232" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -5920,7 +5920,7 @@
         <v>18</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C232" s="6">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>21</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C233" s="6">
         <v>40.65</v>
@@ -5960,7 +5960,7 @@
         <v>23</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C234" s="6">
         <v>80.510000000000005</v>
@@ -5980,7 +5980,7 @@
         <v>24</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C235" s="6" t="s">
         <v>25</v>
@@ -5995,7 +5995,7 @@
         <v>27</v>
       </c>
       <c r="H235" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="236" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -6003,7 +6003,7 @@
         <v>18</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C236" s="6">
         <v>0</v>
@@ -6015,7 +6015,7 @@
         <v>19</v>
       </c>
       <c r="H236" s="5" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="237" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -6023,7 +6023,7 @@
         <v>21</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C237" s="6">
         <v>40</v>
@@ -6046,7 +6046,7 @@
         <v>23</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C238" s="7">
         <f>C237+40.22</f>
@@ -6067,7 +6067,7 @@
         <v>24</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C239" s="6" t="s">
         <v>25</v>
@@ -6082,7 +6082,7 @@
         <v>27</v>
       </c>
       <c r="H239" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="240" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -6090,7 +6090,7 @@
         <v>18</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C240" s="6">
         <v>0</v>
@@ -6110,7 +6110,7 @@
         <v>21</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C241" s="6">
         <v>39.72</v>
@@ -6130,7 +6130,7 @@
         <v>23</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C242" s="6">
         <v>79.45</v>
@@ -6150,7 +6150,7 @@
         <v>24</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C243" s="6" t="s">
         <v>25</v>
@@ -6165,7 +6165,7 @@
         <v>27</v>
       </c>
       <c r="H243" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="244" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -6173,7 +6173,7 @@
         <v>18</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C244" s="6">
         <v>0</v>
@@ -6193,7 +6193,7 @@
         <v>21</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C245" s="6">
         <v>40.520000000000003</v>
@@ -6213,7 +6213,7 @@
         <v>23</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C246" s="6">
         <v>80.540000000000006</v>
@@ -6233,7 +6233,7 @@
         <v>24</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C247" s="6" t="s">
         <v>25</v>
@@ -6248,7 +6248,7 @@
         <v>27</v>
       </c>
       <c r="H247" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="248" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -6256,7 +6256,7 @@
         <v>18</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C248" s="6">
         <v>0</v>
@@ -6276,7 +6276,7 @@
         <v>21</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C249" s="6">
         <v>40.22</v>
@@ -6299,7 +6299,7 @@
         <v>23</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C250" s="7">
         <f>C249+40.13</f>
@@ -6320,7 +6320,7 @@
         <v>24</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C251" s="6" t="s">
         <v>25</v>
@@ -6335,7 +6335,7 @@
         <v>27</v>
       </c>
       <c r="H251" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="252" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -6343,7 +6343,7 @@
         <v>18</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="C252" s="6">
         <v>0</v>
@@ -6363,7 +6363,7 @@
         <v>21</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="C253" s="9">
         <v>39.92</v>
@@ -6383,7 +6383,7 @@
         <v>23</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="C254" s="6">
         <v>79.849999999999994</v>
@@ -6403,7 +6403,7 @@
         <v>24</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="C255" s="6" t="s">
         <v>25</v>
@@ -6418,7 +6418,7 @@
         <v>27</v>
       </c>
       <c r="H255" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="256" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -6426,7 +6426,7 @@
         <v>18</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="C256" s="6">
         <v>0</v>
@@ -6446,7 +6446,7 @@
         <v>21</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="C257" s="6">
         <v>40.409999999999997</v>
@@ -6466,7 +6466,7 @@
         <v>23</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="C258" s="6">
         <v>80.459999999999994</v>
@@ -6486,7 +6486,7 @@
         <v>24</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="C259" s="6" t="s">
         <v>25</v>
@@ -6501,7 +6501,7 @@
         <v>27</v>
       </c>
       <c r="H259" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="260" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -6509,7 +6509,7 @@
         <v>18</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="C260" s="6">
         <v>0</v>
@@ -6529,7 +6529,7 @@
         <v>21</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="C261" s="6">
         <v>40</v>
@@ -6552,7 +6552,7 @@
         <v>23</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="C262" s="7">
         <f>C261+40.37</f>
@@ -6573,7 +6573,7 @@
         <v>24</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="C263" s="6" t="s">
         <v>25</v>
@@ -6588,7 +6588,7 @@
         <v>27</v>
       </c>
       <c r="H263" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="264" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -6596,7 +6596,7 @@
         <v>18</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="C264" s="6">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>21</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="C265" s="6">
         <v>40.159999999999997</v>
@@ -6636,7 +6636,7 @@
         <v>23</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="C266" s="6">
         <v>80.319999999999993</v>
@@ -6656,7 +6656,7 @@
         <v>24</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="C267" s="6" t="s">
         <v>25</v>
@@ -6671,7 +6671,7 @@
         <v>27</v>
       </c>
       <c r="H267" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="268" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -6679,7 +6679,7 @@
         <v>18</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="C268" s="6">
         <v>0</v>
@@ -6699,7 +6699,7 @@
         <v>21</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="C269" s="6">
         <v>40.43</v>
@@ -6719,7 +6719,7 @@
         <v>23</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="C270" s="6">
         <v>80.72</v>
@@ -6739,7 +6739,7 @@
         <v>24</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="C271" s="6" t="s">
         <v>25</v>
@@ -6754,7 +6754,7 @@
         <v>27</v>
       </c>
       <c r="H271" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="272" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -6762,7 +6762,7 @@
         <v>18</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="C272" s="6">
         <v>0</v>
@@ -6782,7 +6782,7 @@
         <v>21</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="C273" s="6">
         <v>39.94</v>
@@ -6805,7 +6805,7 @@
         <v>23</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="C274" s="7">
         <f>C273+40.69</f>
@@ -6826,7 +6826,7 @@
         <v>24</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="C275" s="6" t="s">
         <v>25</v>
@@ -6841,15 +6841,15 @@
         <v>27</v>
       </c>
       <c r="H275" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="276" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="C276" s="7"/>
       <c r="D276" s="5" t="s">
@@ -6859,10 +6859,10 @@
         <v>19</v>
       </c>
       <c r="I276" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="J276" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
     </row>
     <row r="277" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -6870,7 +6870,7 @@
         <v>18</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="C277" s="9">
         <v>5.5</v>
@@ -6882,13 +6882,13 @@
         <v>19</v>
       </c>
       <c r="H277" s="5" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="I277" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="J277" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
     </row>
     <row r="278" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -6896,7 +6896,7 @@
         <v>21</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="C278" s="6">
         <v>7.38</v>
@@ -6911,10 +6911,10 @@
         <v>22</v>
       </c>
       <c r="I278" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="J278" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
     </row>
     <row r="279" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -6922,7 +6922,7 @@
         <v>24</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="C279" s="6" t="s">
         <v>25</v>
@@ -6934,16 +6934,16 @@
         <v>19</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="H279" s="5" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="I279" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="J279" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
     </row>
     <row r="280" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -6951,7 +6951,7 @@
         <v>24</v>
       </c>
       <c r="B280" s="11" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="C280" s="7" t="s">
         <v>25</v>
@@ -6963,16 +6963,16 @@
         <v>19</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="H280" s="5" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="I280" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="J280" s="5" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="281" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -9148,8 +9148,8 @@
   </sheetPr>
   <dimension ref="A1:AB998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38:C40"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -9232,10 +9232,10 @@
         <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="D2" s="6">
         <v>40</v>
@@ -9255,10 +9255,10 @@
         <v>23</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="D3" s="6">
         <v>80</v>
@@ -9278,10 +9278,10 @@
         <v>24</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>25</v>
@@ -9290,10 +9290,10 @@
         <v>43</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
@@ -9301,10 +9301,10 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="D5" s="6">
         <v>40</v>
@@ -9324,10 +9324,10 @@
         <v>23</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="D6" s="6">
         <v>80</v>
@@ -9347,10 +9347,10 @@
         <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>25</v>
@@ -9359,10 +9359,10 @@
         <v>43</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
@@ -9370,10 +9370,10 @@
         <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="D8" s="6">
         <v>40</v>
@@ -9393,10 +9393,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="D9" s="6">
         <v>80</v>
@@ -9416,10 +9416,10 @@
         <v>24</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>25</v>
@@ -9428,10 +9428,10 @@
         <v>43</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
@@ -9439,10 +9439,10 @@
         <v>21</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="D11" s="6">
         <v>40</v>
@@ -9462,10 +9462,10 @@
         <v>23</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="D12" s="6">
         <v>80</v>
@@ -9485,10 +9485,10 @@
         <v>24</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>25</v>
@@ -9497,10 +9497,10 @@
         <v>43</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
@@ -9508,10 +9508,10 @@
         <v>21</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="D14" s="6">
         <v>40</v>
@@ -9531,10 +9531,10 @@
         <v>23</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="D15" s="6">
         <v>80</v>
@@ -9554,10 +9554,10 @@
         <v>24</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>25</v>
@@ -9566,10 +9566,10 @@
         <v>43</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -9577,10 +9577,10 @@
         <v>21</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="D17" s="6">
         <v>40</v>
@@ -9600,10 +9600,10 @@
         <v>23</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="D18" s="6">
         <v>80</v>
@@ -9623,10 +9623,10 @@
         <v>24</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>25</v>
@@ -9635,10 +9635,10 @@
         <v>43</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -9646,10 +9646,10 @@
         <v>21</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="D20" s="6">
         <v>40</v>
@@ -9669,10 +9669,10 @@
         <v>23</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="D21" s="6">
         <v>80</v>
@@ -9692,10 +9692,10 @@
         <v>24</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>25</v>
@@ -9704,10 +9704,10 @@
         <v>43</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -9715,10 +9715,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="D23" s="6">
         <v>40</v>
@@ -9738,10 +9738,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="D24" s="6">
         <v>80</v>
@@ -9761,10 +9761,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>25</v>
@@ -9773,10 +9773,10 @@
         <v>43</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -9784,10 +9784,10 @@
         <v>21</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D26" s="6">
         <v>40</v>
@@ -9807,10 +9807,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D27" s="6">
         <v>80</v>
@@ -9830,10 +9830,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>25</v>
@@ -9842,10 +9842,10 @@
         <v>43</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -9853,10 +9853,10 @@
         <v>21</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D29" s="6">
         <v>40</v>
@@ -9876,10 +9876,10 @@
         <v>23</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D30" s="6">
         <v>80</v>
@@ -9899,10 +9899,10 @@
         <v>24</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>25</v>
@@ -9911,10 +9911,10 @@
         <v>43</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -9922,10 +9922,10 @@
         <v>21</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="D32" s="6">
         <v>40</v>
@@ -9945,10 +9945,10 @@
         <v>23</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="D33" s="6">
         <v>80</v>
@@ -9968,10 +9968,10 @@
         <v>24</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>25</v>
@@ -9980,10 +9980,10 @@
         <v>43</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -9991,10 +9991,10 @@
         <v>21</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D35" s="6">
         <v>40</v>
@@ -10014,10 +10014,10 @@
         <v>23</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D36" s="6">
         <v>43</v>
@@ -10029,10 +10029,10 @@
         <v>19</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -10040,10 +10040,10 @@
         <v>24</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>25</v>
@@ -10052,10 +10052,10 @@
         <v>43</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -10063,10 +10063,10 @@
         <v>23</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="D38" s="6">
         <v>80</v>
@@ -10075,10 +10075,10 @@
         <v>19</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -10086,10 +10086,10 @@
         <v>23</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="D39" s="6">
         <v>80</v>
@@ -10098,10 +10098,10 @@
         <v>19</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -10109,10 +10109,10 @@
         <v>24</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>25</v>
@@ -10121,10 +10121,10 @@
         <v>43</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -10132,7 +10132,7 @@
         <v>21</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>40</v>
@@ -10155,7 +10155,7 @@
         <v>23</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>40</v>
@@ -10178,7 +10178,7 @@
         <v>24</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>40</v>
@@ -10190,10 +10190,10 @@
         <v>43</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -10201,7 +10201,7 @@
         <v>21</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>45</v>
@@ -10224,7 +10224,7 @@
         <v>23</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>45</v>
@@ -10239,10 +10239,10 @@
         <v>19</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -10250,7 +10250,7 @@
         <v>24</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>45</v>
@@ -10262,10 +10262,10 @@
         <v>43</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -10273,7 +10273,7 @@
         <v>21</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>46</v>
@@ -10296,7 +10296,7 @@
         <v>23</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>46</v>
@@ -10319,7 +10319,7 @@
         <v>24</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>46</v>
@@ -10331,10 +10331,10 @@
         <v>43</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -10342,7 +10342,7 @@
         <v>18</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>50</v>
@@ -10357,7 +10357,7 @@
         <v>19</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -10365,7 +10365,7 @@
         <v>21</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>50</v>
@@ -10388,7 +10388,7 @@
         <v>23</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>50</v>
@@ -10403,10 +10403,10 @@
         <v>19</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -10414,7 +10414,7 @@
         <v>24</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>50</v>
@@ -10426,10 +10426,10 @@
         <v>43</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -10437,7 +10437,7 @@
         <v>18</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>52</v>
@@ -10452,7 +10452,7 @@
         <v>19</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -10460,7 +10460,7 @@
         <v>21</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>52</v>
@@ -10483,7 +10483,7 @@
         <v>23</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>52</v>
@@ -10506,7 +10506,7 @@
         <v>24</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>52</v>
@@ -10518,10 +10518,10 @@
         <v>43</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -10529,7 +10529,7 @@
         <v>21</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>56</v>
@@ -10552,7 +10552,7 @@
         <v>23</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>56</v>
@@ -10567,10 +10567,10 @@
         <v>19</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -10578,7 +10578,7 @@
         <v>24</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>56</v>
@@ -10590,10 +10590,10 @@
         <v>43</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -10601,7 +10601,7 @@
         <v>21</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>59</v>
@@ -10624,7 +10624,7 @@
         <v>23</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>59</v>
@@ -10647,7 +10647,7 @@
         <v>24</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>59</v>
@@ -10659,10 +10659,10 @@
         <v>43</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -10670,7 +10670,7 @@
         <v>21</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>63</v>
@@ -10693,7 +10693,7 @@
         <v>23</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>63</v>
@@ -10708,10 +10708,10 @@
         <v>19</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -10719,7 +10719,7 @@
         <v>24</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>63</v>
@@ -10731,10 +10731,10 @@
         <v>43</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -10742,7 +10742,7 @@
         <v>21</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>65</v>
@@ -10765,7 +10765,7 @@
         <v>23</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>65</v>
@@ -10783,7 +10783,7 @@
         <v>22</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -10791,7 +10791,7 @@
         <v>24</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>65</v>
@@ -10803,10 +10803,10 @@
         <v>43</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -10814,10 +10814,10 @@
         <v>18</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="D70" s="6">
         <v>40.32</v>
@@ -10829,7 +10829,7 @@
         <v>19</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -10837,10 +10837,10 @@
         <v>23</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="D71" s="6">
         <v>44.3</v>
@@ -10855,7 +10855,7 @@
         <v>22</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -10863,10 +10863,10 @@
         <v>24</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>25</v>
@@ -10875,10 +10875,10 @@
         <v>43</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -10886,10 +10886,10 @@
         <v>21</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D73" s="6">
         <v>40</v>
@@ -10909,10 +10909,10 @@
         <v>23</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D74" s="6">
         <v>80</v>
@@ -10932,10 +10932,10 @@
         <v>24</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>25</v>
@@ -10944,10 +10944,10 @@
         <v>43</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -10955,10 +10955,10 @@
         <v>21</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D76" s="6">
         <v>39.950000000000003</v>
@@ -10978,10 +10978,10 @@
         <v>23</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D77" s="6">
         <v>79.900000000000006</v>
@@ -10993,10 +10993,10 @@
         <v>19</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -11004,10 +11004,10 @@
         <v>24</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>25</v>
@@ -11016,10 +11016,10 @@
         <v>43</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -11027,10 +11027,10 @@
         <v>21</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D79" s="6">
         <v>40</v>
@@ -11050,10 +11050,10 @@
         <v>23</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D80" s="6">
         <v>80</v>
@@ -11073,10 +11073,10 @@
         <v>24</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>25</v>
@@ -11085,10 +11085,10 @@
         <v>43</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -11096,10 +11096,10 @@
         <v>21</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D82" s="6">
         <v>40.03</v>
@@ -11119,10 +11119,10 @@
         <v>23</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D83" s="6">
         <v>80.069999999999993</v>
@@ -11134,10 +11134,10 @@
         <v>19</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -11145,10 +11145,10 @@
         <v>24</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>25</v>
@@ -11157,10 +11157,10 @@
         <v>43</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -11168,10 +11168,10 @@
         <v>21</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D85" s="6">
         <v>40</v>
@@ -11191,10 +11191,10 @@
         <v>23</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D86" s="6">
         <v>80</v>
@@ -11214,10 +11214,10 @@
         <v>24</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>25</v>
@@ -11226,10 +11226,10 @@
         <v>43</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -11237,10 +11237,10 @@
         <v>21</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D88" s="6">
         <v>39.96</v>
@@ -11260,10 +11260,10 @@
         <v>18</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D89" s="6">
         <v>63.87</v>
@@ -11275,7 +11275,7 @@
         <v>19</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -11283,10 +11283,10 @@
         <v>23</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D90" s="6">
         <v>79.92</v>
@@ -11298,10 +11298,10 @@
         <v>19</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -11309,10 +11309,10 @@
         <v>24</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>25</v>
@@ -11321,10 +11321,10 @@
         <v>43</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -11332,10 +11332,10 @@
         <v>21</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D92" s="6">
         <v>40</v>
@@ -11355,10 +11355,10 @@
         <v>23</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D93" s="6">
         <v>80</v>
@@ -11378,10 +11378,10 @@
         <v>24</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>25</v>
@@ -11390,10 +11390,10 @@
         <v>43</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -11401,10 +11401,10 @@
         <v>21</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D95" s="6">
         <v>39.81</v>
@@ -11424,10 +11424,10 @@
         <v>18</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D96" s="6">
         <v>53.18</v>
@@ -11439,7 +11439,7 @@
         <v>19</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -11447,10 +11447,10 @@
         <v>23</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D97" s="6">
         <v>79.62</v>
@@ -11462,10 +11462,10 @@
         <v>19</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -11473,10 +11473,10 @@
         <v>24</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>25</v>
@@ -11485,10 +11485,10 @@
         <v>43</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -11496,10 +11496,10 @@
         <v>21</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D99" s="6">
         <v>40</v>
@@ -11519,10 +11519,10 @@
         <v>23</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D100" s="6">
         <v>80</v>
@@ -11542,10 +11542,10 @@
         <v>24</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>25</v>
@@ -11554,10 +11554,10 @@
         <v>43</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -11565,10 +11565,10 @@
         <v>21</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="D102" s="6">
         <v>40</v>
@@ -11588,10 +11588,10 @@
         <v>18</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="D103" s="6">
         <v>64.31</v>
@@ -11603,7 +11603,7 @@
         <v>19</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -11611,10 +11611,10 @@
         <v>23</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="D104" s="6">
         <v>69.84</v>
@@ -11629,7 +11629,7 @@
         <v>22</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -11637,10 +11637,10 @@
         <v>24</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>25</v>
@@ -11649,10 +11649,10 @@
         <v>43</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -11660,10 +11660,10 @@
         <v>21</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="D106" s="6">
         <v>40.380000000000003</v>
@@ -11683,10 +11683,10 @@
         <v>23</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="D107" s="6">
         <v>80.38</v>
@@ -11698,10 +11698,10 @@
         <v>19</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="J107" s="5" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -11709,10 +11709,10 @@
         <v>24</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>25</v>
@@ -11721,10 +11721,10 @@
         <v>43</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -11732,10 +11732,10 @@
         <v>21</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D109" s="6">
         <v>40</v>
@@ -11755,10 +11755,10 @@
         <v>23</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D110" s="6">
         <v>80</v>
@@ -11778,10 +11778,10 @@
         <v>24</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>25</v>
@@ -11790,10 +11790,10 @@
         <v>43</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -11801,10 +11801,10 @@
         <v>21</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D112" s="6">
         <v>39.94</v>
@@ -11824,10 +11824,10 @@
         <v>23</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D113" s="6">
         <v>79.88</v>
@@ -11839,10 +11839,10 @@
         <v>19</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="J113" s="5" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -11850,10 +11850,10 @@
         <v>24</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>25</v>
@@ -11862,10 +11862,10 @@
         <v>43</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -11873,10 +11873,10 @@
         <v>21</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D115" s="6">
         <v>40</v>
@@ -11896,10 +11896,10 @@
         <v>23</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D116" s="6">
         <v>80</v>
@@ -11919,10 +11919,10 @@
         <v>24</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>25</v>
@@ -11931,10 +11931,10 @@
         <v>43</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -11942,10 +11942,10 @@
         <v>21</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D118" s="6">
         <v>39.840000000000003</v>
@@ -11965,10 +11965,10 @@
         <v>23</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D119" s="6">
         <v>79.69</v>
@@ -11980,10 +11980,10 @@
         <v>19</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -11991,10 +11991,10 @@
         <v>24</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>25</v>
@@ -12003,10 +12003,10 @@
         <v>43</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -12014,10 +12014,10 @@
         <v>21</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D121" s="6">
         <v>40</v>
@@ -12037,10 +12037,10 @@
         <v>23</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D122" s="6">
         <v>80</v>
@@ -12060,10 +12060,10 @@
         <v>24</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>25</v>
@@ -12072,10 +12072,10 @@
         <v>43</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -12083,10 +12083,10 @@
         <v>21</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D124" s="6">
         <v>40.24</v>
@@ -12106,10 +12106,10 @@
         <v>23</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D125" s="6">
         <v>80.040000000000006</v>
@@ -12121,10 +12121,10 @@
         <v>19</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="J125" s="5" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -12132,10 +12132,10 @@
         <v>24</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>25</v>
@@ -12144,10 +12144,10 @@
         <v>43</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -12155,10 +12155,10 @@
         <v>21</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D127" s="6">
         <v>40</v>
@@ -12178,10 +12178,10 @@
         <v>23</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D128" s="6">
         <v>80</v>
@@ -12201,10 +12201,10 @@
         <v>24</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>25</v>
@@ -12213,10 +12213,10 @@
         <v>43</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -12224,10 +12224,10 @@
         <v>21</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D130" s="6">
         <v>40.1</v>
@@ -12247,10 +12247,10 @@
         <v>23</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D131" s="6">
         <v>80.2</v>
@@ -12262,10 +12262,10 @@
         <v>19</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="J131" s="5" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -12273,10 +12273,10 @@
         <v>24</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>25</v>
@@ -12285,10 +12285,10 @@
         <v>43</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -12296,10 +12296,10 @@
         <v>21</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D133" s="6">
         <v>40</v>
@@ -12319,10 +12319,10 @@
         <v>23</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D134" s="6">
         <v>80</v>
@@ -12342,10 +12342,10 @@
         <v>24</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>25</v>
@@ -12354,10 +12354,10 @@
         <v>43</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -12365,10 +12365,10 @@
         <v>21</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="D136" s="6">
         <v>39.880000000000003</v>
@@ -12388,10 +12388,10 @@
         <v>23</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="D137" s="6">
         <v>79.760000000000005</v>
@@ -12403,10 +12403,10 @@
         <v>19</v>
       </c>
       <c r="I137" s="5" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="J137" s="5" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -12414,10 +12414,10 @@
         <v>24</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="D138" s="6" t="s">
         <v>25</v>
@@ -12426,10 +12426,10 @@
         <v>43</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -12437,10 +12437,10 @@
         <v>21</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="D139" s="6">
         <v>40.159999999999997</v>
@@ -12460,10 +12460,10 @@
         <v>23</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="D140" s="6">
         <v>80.16</v>
@@ -12475,10 +12475,10 @@
         <v>19</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="J140" s="5" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -12486,10 +12486,10 @@
         <v>24</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="D141" s="6" t="s">
         <v>25</v>
@@ -12498,10 +12498,10 @@
         <v>43</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -12509,10 +12509,10 @@
         <v>21</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D142" s="6">
         <v>40</v>
@@ -12532,10 +12532,10 @@
         <v>23</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D143" s="6">
         <v>80</v>
@@ -12555,10 +12555,10 @@
         <v>24</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D144" s="6" t="s">
         <v>25</v>
@@ -12567,10 +12567,10 @@
         <v>43</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I144" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -12578,10 +12578,10 @@
         <v>21</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D145" s="6">
         <v>39.880000000000003</v>
@@ -12601,10 +12601,10 @@
         <v>23</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D146" s="6">
         <v>79.77</v>
@@ -12616,10 +12616,10 @@
         <v>19</v>
       </c>
       <c r="I146" s="5" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="J146" s="5" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -12627,10 +12627,10 @@
         <v>24</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D147" s="6" t="s">
         <v>25</v>
@@ -12639,10 +12639,10 @@
         <v>43</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I147" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -12650,10 +12650,10 @@
         <v>21</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D148" s="6">
         <v>40</v>
@@ -12673,10 +12673,10 @@
         <v>23</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D149" s="6">
         <v>80</v>
@@ -12696,10 +12696,10 @@
         <v>24</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D150" s="6" t="s">
         <v>25</v>
@@ -12708,10 +12708,10 @@
         <v>43</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I150" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -12719,10 +12719,10 @@
         <v>21</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D151" s="6">
         <v>39.979999999999997</v>
@@ -12742,10 +12742,10 @@
         <v>23</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D152" s="6">
         <v>79.959999999999994</v>
@@ -12757,10 +12757,10 @@
         <v>19</v>
       </c>
       <c r="I152" s="5" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="J152" s="5" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -12768,10 +12768,10 @@
         <v>24</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>25</v>
@@ -12780,10 +12780,10 @@
         <v>43</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I153" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -12791,10 +12791,10 @@
         <v>21</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D154" s="6">
         <v>40</v>
@@ -12814,10 +12814,10 @@
         <v>18</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D155" s="6">
         <v>46</v>
@@ -12829,7 +12829,7 @@
         <v>19</v>
       </c>
       <c r="I155" s="5" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -12837,10 +12837,10 @@
         <v>18</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D156" s="6">
         <v>54</v>
@@ -12852,10 +12852,10 @@
         <v>19</v>
       </c>
       <c r="I156" s="5" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="J156" s="5" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -12863,10 +12863,10 @@
         <v>23</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D157" s="6">
         <v>80</v>
@@ -12886,10 +12886,10 @@
         <v>24</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>25</v>
@@ -12898,10 +12898,10 @@
         <v>43</v>
       </c>
       <c r="G158" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I158" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -12909,10 +12909,10 @@
         <v>21</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D159" s="6">
         <v>39.96</v>
@@ -12932,10 +12932,10 @@
         <v>23</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D160" s="6">
         <v>79.92</v>
@@ -12947,10 +12947,10 @@
         <v>19</v>
       </c>
       <c r="I160" s="5" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="J160" s="5" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -12958,10 +12958,10 @@
         <v>24</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D161" s="6" t="s">
         <v>25</v>
@@ -12970,10 +12970,10 @@
         <v>43</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -12981,10 +12981,10 @@
         <v>21</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D162" s="6">
         <v>40</v>
@@ -13004,10 +13004,10 @@
         <v>23</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D163" s="6">
         <v>80</v>
@@ -13027,10 +13027,10 @@
         <v>24</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D164" s="6" t="s">
         <v>25</v>
@@ -13039,10 +13039,10 @@
         <v>43</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I164" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="165" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -13050,10 +13050,10 @@
         <v>21</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="D165" s="6">
         <v>39.85</v>
@@ -13073,10 +13073,10 @@
         <v>23</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="D166" s="6">
         <v>79.709999999999994</v>
@@ -13088,10 +13088,10 @@
         <v>19</v>
       </c>
       <c r="I166" s="5" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="J166" s="5" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -13099,10 +13099,10 @@
         <v>24</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="D167" s="6" t="s">
         <v>25</v>
@@ -13111,10 +13111,10 @@
         <v>43</v>
       </c>
       <c r="G167" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I167" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -13122,10 +13122,10 @@
         <v>21</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="D168" s="6">
         <v>40</v>
@@ -13145,10 +13145,10 @@
         <v>23</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="D169" s="6">
         <v>80</v>
@@ -13168,10 +13168,10 @@
         <v>24</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="D170" s="6" t="s">
         <v>25</v>
@@ -13180,10 +13180,10 @@
         <v>43</v>
       </c>
       <c r="G170" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I170" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -13191,10 +13191,10 @@
         <v>21</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="D171" s="6">
         <v>40.1</v>
@@ -13214,10 +13214,10 @@
         <v>23</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="D172" s="6">
         <v>80.209999999999994</v>
@@ -13229,10 +13229,10 @@
         <v>19</v>
       </c>
       <c r="I172" s="5" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="J172" s="5" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="173" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -13240,10 +13240,10 @@
         <v>24</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="D173" s="6" t="s">
         <v>25</v>
@@ -13252,10 +13252,10 @@
         <v>43</v>
       </c>
       <c r="G173" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I173" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="174" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -13263,10 +13263,10 @@
         <v>21</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="D174" s="6">
         <v>40.29</v>
@@ -13286,10 +13286,10 @@
         <v>23</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="D175" s="6">
         <v>80.290000000000006</v>
@@ -13301,10 +13301,10 @@
         <v>19</v>
       </c>
       <c r="I175" s="5" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="J175" s="5" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="176" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -13312,10 +13312,10 @@
         <v>24</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="D176" s="6" t="s">
         <v>25</v>
@@ -13324,10 +13324,10 @@
         <v>43</v>
       </c>
       <c r="G176" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I176" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="177" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -13335,10 +13335,10 @@
         <v>21</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D177" s="6">
         <v>40</v>
@@ -13353,7 +13353,7 @@
         <v>22</v>
       </c>
       <c r="J177" s="8" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="178" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -13361,10 +13361,10 @@
         <v>23</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D178" s="6">
         <v>80</v>
@@ -13384,10 +13384,10 @@
         <v>24</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D179" s="6" t="s">
         <v>25</v>
@@ -13396,10 +13396,10 @@
         <v>43</v>
       </c>
       <c r="G179" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I179" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="180" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -13407,10 +13407,10 @@
         <v>21</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D180" s="6">
         <v>39.840000000000003</v>
@@ -13430,10 +13430,10 @@
         <v>23</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D181" s="6">
         <v>79.680000000000007</v>
@@ -13445,10 +13445,10 @@
         <v>19</v>
       </c>
       <c r="I181" s="5" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="J181" s="5" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="182" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -13456,10 +13456,10 @@
         <v>24</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D182" s="6" t="s">
         <v>25</v>
@@ -13468,10 +13468,10 @@
         <v>43</v>
       </c>
       <c r="G182" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I182" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="183" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -13479,10 +13479,10 @@
         <v>21</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D183" s="6">
         <v>38.840000000000003</v>
@@ -13502,10 +13502,10 @@
         <v>23</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D184" s="6">
         <v>78.84</v>
@@ -13517,10 +13517,10 @@
         <v>19</v>
       </c>
       <c r="I184" s="5" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="J184" s="5" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="185" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -13528,10 +13528,10 @@
         <v>24</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D185" s="6" t="s">
         <v>25</v>
@@ -13540,10 +13540,10 @@
         <v>43</v>
       </c>
       <c r="G185" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I185" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="186" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -13551,10 +13551,10 @@
         <v>21</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D186" s="6">
         <v>40</v>
@@ -13574,10 +13574,10 @@
         <v>23</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D187" s="6">
         <v>80</v>
@@ -13597,10 +13597,10 @@
         <v>24</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D188" s="6" t="s">
         <v>25</v>
@@ -13609,10 +13609,10 @@
         <v>43</v>
       </c>
       <c r="G188" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I188" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="189" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -13620,10 +13620,10 @@
         <v>21</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D189" s="6">
         <v>40.03</v>
@@ -13643,10 +13643,10 @@
         <v>23</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D190" s="6">
         <v>80.069999999999993</v>
@@ -13658,10 +13658,10 @@
         <v>19</v>
       </c>
       <c r="I190" s="5" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="J190" s="5" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="191" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -13669,10 +13669,10 @@
         <v>24</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D191" s="6" t="s">
         <v>25</v>
@@ -13681,10 +13681,10 @@
         <v>43</v>
       </c>
       <c r="G191" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I191" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="192" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -13692,10 +13692,10 @@
         <v>21</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D192" s="6">
         <v>39.22</v>
@@ -13715,10 +13715,10 @@
         <v>23</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D193" s="6">
         <v>79.22</v>
@@ -13730,10 +13730,10 @@
         <v>19</v>
       </c>
       <c r="I193" s="5" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="J193" s="5" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="194" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -13741,10 +13741,10 @@
         <v>24</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D194" s="6" t="s">
         <v>25</v>
@@ -13753,10 +13753,10 @@
         <v>43</v>
       </c>
       <c r="G194" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I194" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -13764,10 +13764,10 @@
         <v>21</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D195" s="6">
         <v>40</v>
@@ -13787,10 +13787,10 @@
         <v>23</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D196" s="6">
         <v>80</v>
@@ -13810,10 +13810,10 @@
         <v>24</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D197" s="6" t="s">
         <v>25</v>
@@ -13822,10 +13822,10 @@
         <v>43</v>
       </c>
       <c r="G197" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I197" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -13833,10 +13833,10 @@
         <v>21</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D198" s="6">
         <v>39.880000000000003</v>
@@ -13856,10 +13856,10 @@
         <v>23</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D199" s="6">
         <v>79.760000000000005</v>
@@ -13871,10 +13871,10 @@
         <v>19</v>
       </c>
       <c r="I199" s="5" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="J199" s="5" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -13882,10 +13882,10 @@
         <v>24</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D200" s="6" t="s">
         <v>25</v>
@@ -13894,10 +13894,10 @@
         <v>43</v>
       </c>
       <c r="G200" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I200" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="201" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -13905,10 +13905,10 @@
         <v>21</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D201" s="6">
         <v>39.51</v>
@@ -13928,10 +13928,10 @@
         <v>23</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D202" s="6">
         <v>79.569999999999993</v>
@@ -13943,10 +13943,10 @@
         <v>19</v>
       </c>
       <c r="I202" s="5" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="J202" s="5" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -13954,10 +13954,10 @@
         <v>24</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D203" s="6" t="s">
         <v>25</v>
@@ -13966,10 +13966,10 @@
         <v>43</v>
       </c>
       <c r="G203" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I203" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -13977,10 +13977,10 @@
         <v>21</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D204" s="6">
         <v>40</v>
@@ -14000,10 +14000,10 @@
         <v>23</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D205" s="6">
         <v>80</v>
@@ -14023,10 +14023,10 @@
         <v>24</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D206" s="6" t="s">
         <v>25</v>
@@ -14035,10 +14035,10 @@
         <v>43</v>
       </c>
       <c r="G206" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I206" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="207" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -14046,10 +14046,10 @@
         <v>21</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="D207" s="6">
         <v>39.909999999999997</v>
@@ -14069,10 +14069,10 @@
         <v>23</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="D208" s="6">
         <v>79.819999999999993</v>
@@ -14084,10 +14084,10 @@
         <v>19</v>
       </c>
       <c r="I208" s="5" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="J208" s="5" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="209" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -14095,10 +14095,10 @@
         <v>24</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="D209" s="6" t="s">
         <v>25</v>
@@ -14107,10 +14107,10 @@
         <v>43</v>
       </c>
       <c r="G209" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I209" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="210" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -14118,10 +14118,10 @@
         <v>21</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="D210" s="6">
         <v>39.64</v>
@@ -14141,10 +14141,10 @@
         <v>23</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="D211" s="6">
         <v>79.64</v>
@@ -14156,10 +14156,10 @@
         <v>19</v>
       </c>
       <c r="I211" s="5" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="J211" s="5" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="212" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -14167,10 +14167,10 @@
         <v>24</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="D212" s="6" t="s">
         <v>25</v>
@@ -14179,10 +14179,10 @@
         <v>43</v>
       </c>
       <c r="G212" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I212" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="213" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -14190,10 +14190,10 @@
         <v>21</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="D213" s="6">
         <v>40</v>
@@ -14213,10 +14213,10 @@
         <v>23</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="D214" s="6">
         <v>80</v>
@@ -14236,10 +14236,10 @@
         <v>24</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="D215" s="6" t="s">
         <v>25</v>
@@ -14248,10 +14248,10 @@
         <v>43</v>
       </c>
       <c r="G215" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I215" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="216" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -14259,10 +14259,10 @@
         <v>21</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="D216" s="6">
         <v>39.950000000000003</v>
@@ -14282,10 +14282,10 @@
         <v>23</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="D217" s="6">
         <v>79.900000000000006</v>
@@ -14297,10 +14297,10 @@
         <v>19</v>
       </c>
       <c r="I217" s="5" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="J217" s="5" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="218" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -14308,10 +14308,10 @@
         <v>24</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="D218" s="6" t="s">
         <v>25</v>
@@ -14320,10 +14320,10 @@
         <v>43</v>
       </c>
       <c r="G218" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I218" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="219" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -14331,10 +14331,10 @@
         <v>21</v>
       </c>
       <c r="B219" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C219" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="C219" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="D219" s="6">
         <v>39.86</v>
@@ -14354,10 +14354,10 @@
         <v>23</v>
       </c>
       <c r="B220" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C220" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="C220" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="D220" s="6">
         <v>79.86</v>
@@ -14369,10 +14369,10 @@
         <v>19</v>
       </c>
       <c r="I220" s="5" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="J220" s="5" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="221" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -14380,10 +14380,10 @@
         <v>24</v>
       </c>
       <c r="B221" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C221" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="C221" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="D221" s="6" t="s">
         <v>25</v>
@@ -14392,10 +14392,10 @@
         <v>43</v>
       </c>
       <c r="G221" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I221" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="222" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -14403,10 +14403,10 @@
         <v>21</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="D222" s="6">
         <v>40.07</v>
@@ -14426,10 +14426,10 @@
         <v>23</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="D223" s="6">
         <v>80.069999999999993</v>
@@ -14441,10 +14441,10 @@
         <v>19</v>
       </c>
       <c r="I223" s="5" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="J223" s="5" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="224" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -14452,10 +14452,10 @@
         <v>24</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="D224" s="6" t="s">
         <v>25</v>
@@ -14464,10 +14464,10 @@
         <v>43</v>
       </c>
       <c r="G224" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I224" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="225" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">

--- a/data/T31R11_data.xlsx
+++ b/data/T31R11_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kara Fox\Documents\Kara GLO\RStudio\GLO_sage\Sage_GLO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA19F4B2-0DE4-4384-B9F3-530E4051558B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929C59E8-4F80-4AA6-8109-625ED2D5A35D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-5295" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-5295" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1940Survey" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -92,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3054" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3062" uniqueCount="186">
   <si>
     <t>Survey_type</t>
   </si>
@@ -649,6 +649,24 @@
   </si>
   <si>
     <t>31-11-06-W</t>
+  </si>
+  <si>
+    <t>Surveyor_id</t>
+  </si>
+  <si>
+    <t>Date_surveyed</t>
+  </si>
+  <si>
+    <t>HSC</t>
+  </si>
+  <si>
+    <t>July 10-July 21</t>
+  </si>
+  <si>
+    <t>WWB</t>
+  </si>
+  <si>
+    <t>July 19-August 9</t>
   </si>
 </sst>
 </file>
@@ -960,20 +978,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA1000"/>
+  <dimension ref="A1:AC1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="B280" sqref="B280"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="8" max="8" width="34.44140625" customWidth="1"/>
-    <col min="9" max="9" width="40.109375" customWidth="1"/>
+    <col min="8" max="9" width="34.44140625" customWidth="1"/>
+    <col min="10" max="11" width="40.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -999,37 +1017,41 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
@@ -1037,8 +1059,10 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
-    </row>
-    <row r="2" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+    </row>
+    <row r="2" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -1057,8 +1081,14 @@
       <c r="H2" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I2" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
@@ -1077,8 +1107,9 @@
       <c r="H3" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
@@ -1097,8 +1128,9 @@
       <c r="H4" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -1120,8 +1152,9 @@
       <c r="H5" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -1140,8 +1173,9 @@
       <c r="H6" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
@@ -1160,8 +1194,9 @@
       <c r="H7" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
@@ -1180,11 +1215,12 @@
       <c r="H8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="I8" s="5"/>
+      <c r="Q8" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
@@ -1204,8 +1240,9 @@
       <c r="H9" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
@@ -1225,8 +1262,9 @@
       <c r="H10" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
@@ -1248,8 +1286,9 @@
       <c r="H11" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
@@ -1268,8 +1307,9 @@
       <c r="H12" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
@@ -1288,8 +1328,9 @@
       <c r="H13" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -1308,8 +1349,9 @@
       <c r="H14" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
@@ -1328,11 +1370,12 @@
       <c r="H15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="I15" s="5"/>
+      <c r="Q15" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -1352,8 +1395,9 @@
       <c r="H16" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -1373,8 +1417,9 @@
       <c r="H17" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>23</v>
       </c>
@@ -1394,8 +1439,9 @@
       <c r="H18" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>24</v>
       </c>
@@ -1417,8 +1463,9 @@
       <c r="H19" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -1437,8 +1484,9 @@
       <c r="H20" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>18</v>
       </c>
@@ -1457,8 +1505,9 @@
       <c r="H21" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
@@ -1477,11 +1526,12 @@
       <c r="H22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O22" s="5" t="s">
+      <c r="I22" s="5"/>
+      <c r="Q22" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
@@ -1501,11 +1551,13 @@
       <c r="H23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="5"/>
+      <c r="J23" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="K23" s="8"/>
+    </row>
+    <row r="24" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>24</v>
       </c>
@@ -1524,8 +1576,9 @@
       <c r="H24" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>18</v>
       </c>
@@ -1544,8 +1597,9 @@
       <c r="H25" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>21</v>
       </c>
@@ -1564,8 +1618,9 @@
       <c r="H26" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>23</v>
       </c>
@@ -1584,8 +1639,9 @@
       <c r="H27" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>24</v>
       </c>
@@ -1607,8 +1663,9 @@
       <c r="H28" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>18</v>
       </c>
@@ -1627,8 +1684,9 @@
       <c r="H29" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>21</v>
       </c>
@@ -1647,11 +1705,12 @@
       <c r="H30" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O30" s="5" t="s">
+      <c r="I30" s="5"/>
+      <c r="Q30" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>23</v>
       </c>
@@ -1671,8 +1730,9 @@
       <c r="H31" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>24</v>
       </c>
@@ -1694,8 +1754,9 @@
       <c r="H32" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>18</v>
       </c>
@@ -1714,8 +1775,9 @@
       <c r="H33" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>18</v>
       </c>
@@ -1734,8 +1796,9 @@
       <c r="H34" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>18</v>
       </c>
@@ -1754,8 +1817,9 @@
       <c r="H35" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>21</v>
       </c>
@@ -1774,11 +1838,12 @@
       <c r="H36" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O36" s="5" t="s">
+      <c r="I36" s="5"/>
+      <c r="Q36" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>18</v>
       </c>
@@ -1798,8 +1863,9 @@
       <c r="H37" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>23</v>
       </c>
@@ -1819,8 +1885,9 @@
       <c r="H38" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>24</v>
       </c>
@@ -1842,8 +1909,9 @@
       <c r="H39" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>18</v>
       </c>
@@ -1862,8 +1930,9 @@
       <c r="H40" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>18</v>
       </c>
@@ -1882,8 +1951,9 @@
       <c r="H41" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>21</v>
       </c>
@@ -1902,8 +1972,9 @@
       <c r="H42" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>18</v>
       </c>
@@ -1922,8 +1993,9 @@
       <c r="H43" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>23</v>
       </c>
@@ -1942,8 +2014,9 @@
       <c r="H44" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>24</v>
       </c>
@@ -1965,8 +2038,9 @@
       <c r="H45" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>18</v>
       </c>
@@ -1985,8 +2059,9 @@
       <c r="H46" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>18</v>
       </c>
@@ -2005,8 +2080,9 @@
       <c r="H47" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>18</v>
       </c>
@@ -2025,8 +2101,9 @@
       <c r="H48" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>21</v>
       </c>
@@ -2045,11 +2122,13 @@
       <c r="H49" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I49" s="5" t="s">
+      <c r="I49" s="5"/>
+      <c r="J49" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="K49" s="5"/>
+    </row>
+    <row r="50" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>18</v>
       </c>
@@ -2068,8 +2147,9 @@
       <c r="H50" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>23</v>
       </c>
@@ -2088,8 +2168,9 @@
       <c r="H51" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>24</v>
       </c>
@@ -2111,8 +2192,9 @@
       <c r="H52" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>18</v>
       </c>
@@ -2131,8 +2213,9 @@
       <c r="H53" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>18</v>
       </c>
@@ -2151,8 +2234,9 @@
       <c r="H54" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>21</v>
       </c>
@@ -2171,8 +2255,9 @@
       <c r="H55" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>18</v>
       </c>
@@ -2191,8 +2276,9 @@
       <c r="H56" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>23</v>
       </c>
@@ -2211,8 +2297,9 @@
       <c r="H57" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>24</v>
       </c>
@@ -2234,8 +2321,9 @@
       <c r="H58" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>18</v>
       </c>
@@ -2254,8 +2342,9 @@
       <c r="H59" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>18</v>
       </c>
@@ -2274,8 +2363,9 @@
       <c r="H60" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I60" s="5"/>
+    </row>
+    <row r="61" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>18</v>
       </c>
@@ -2294,8 +2384,9 @@
       <c r="H61" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>21</v>
       </c>
@@ -2314,8 +2405,9 @@
       <c r="H62" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I62" s="5"/>
+    </row>
+    <row r="63" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>18</v>
       </c>
@@ -2334,8 +2426,9 @@
       <c r="H63" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I63" s="5"/>
+    </row>
+    <row r="64" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>23</v>
       </c>
@@ -2354,8 +2447,9 @@
       <c r="H64" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I64" s="5"/>
+    </row>
+    <row r="65" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>24</v>
       </c>
@@ -2377,8 +2471,9 @@
       <c r="H65" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I65" s="5"/>
+    </row>
+    <row r="66" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>18</v>
       </c>
@@ -2397,8 +2492,9 @@
       <c r="H66" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>18</v>
       </c>
@@ -2417,8 +2513,9 @@
       <c r="H67" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I67" s="5"/>
+    </row>
+    <row r="68" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>21</v>
       </c>
@@ -2437,8 +2534,9 @@
       <c r="H68" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>23</v>
       </c>
@@ -2457,11 +2555,13 @@
       <c r="H69" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I69" s="5" t="s">
+      <c r="I69" s="5"/>
+      <c r="J69" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="K69" s="5"/>
+    </row>
+    <row r="70" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>24</v>
       </c>
@@ -2483,8 +2583,9 @@
       <c r="H70" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I70" s="5"/>
+    </row>
+    <row r="71" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>18</v>
       </c>
@@ -2503,8 +2604,9 @@
       <c r="H71" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>21</v>
       </c>
@@ -2523,11 +2625,12 @@
       <c r="H72" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O72" s="5" t="s">
+      <c r="I72" s="5"/>
+      <c r="Q72" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>23</v>
       </c>
@@ -2547,11 +2650,13 @@
       <c r="H73" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I73" s="5" t="s">
+      <c r="I73" s="5"/>
+      <c r="J73" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="K73" s="5"/>
+    </row>
+    <row r="74" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>24</v>
       </c>
@@ -2570,8 +2675,9 @@
       <c r="H74" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I74" s="5"/>
+    </row>
+    <row r="75" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>18</v>
       </c>
@@ -2590,8 +2696,9 @@
       <c r="H75" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I75" s="5"/>
+    </row>
+    <row r="76" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>23</v>
       </c>
@@ -2610,11 +2717,13 @@
       <c r="H76" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I76" s="5" t="s">
+      <c r="I76" s="5"/>
+      <c r="J76" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="K76" s="5"/>
+    </row>
+    <row r="77" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>24</v>
       </c>
@@ -2636,8 +2745,9 @@
       <c r="H77" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I77" s="5"/>
+    </row>
+    <row r="78" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>18</v>
       </c>
@@ -2656,8 +2766,9 @@
       <c r="H78" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I78" s="5"/>
+    </row>
+    <row r="79" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>21</v>
       </c>
@@ -2676,11 +2787,12 @@
       <c r="H79" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O79" s="5" t="s">
+      <c r="I79" s="5"/>
+      <c r="Q79" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>23</v>
       </c>
@@ -2700,8 +2812,9 @@
       <c r="H80" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I80" s="5"/>
+    </row>
+    <row r="81" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>24</v>
       </c>
@@ -2723,8 +2836,9 @@
       <c r="H81" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I81" s="5"/>
+    </row>
+    <row r="82" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>18</v>
       </c>
@@ -2743,8 +2857,9 @@
       <c r="H82" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I82" s="5"/>
+    </row>
+    <row r="83" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>21</v>
       </c>
@@ -2763,8 +2878,9 @@
       <c r="H83" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I83" s="5"/>
+    </row>
+    <row r="84" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>23</v>
       </c>
@@ -2783,8 +2899,9 @@
       <c r="H84" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I84" s="5"/>
+    </row>
+    <row r="85" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>24</v>
       </c>
@@ -2806,8 +2923,9 @@
       <c r="H85" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I85" s="5"/>
+    </row>
+    <row r="86" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>18</v>
       </c>
@@ -2826,8 +2944,9 @@
       <c r="H86" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I86" s="5"/>
+    </row>
+    <row r="87" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>21</v>
       </c>
@@ -2846,11 +2965,12 @@
       <c r="H87" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O87" s="5" t="s">
+      <c r="I87" s="5"/>
+      <c r="Q87" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>23</v>
       </c>
@@ -2870,8 +2990,9 @@
       <c r="H88" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I88" s="5"/>
+    </row>
+    <row r="89" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>24</v>
       </c>
@@ -2893,8 +3014,9 @@
       <c r="H89" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I89" s="5"/>
+    </row>
+    <row r="90" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>18</v>
       </c>
@@ -2913,8 +3035,9 @@
       <c r="H90" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I90" s="5"/>
+    </row>
+    <row r="91" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>21</v>
       </c>
@@ -2933,11 +3056,12 @@
       <c r="H91" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O91" s="5" t="s">
+      <c r="I91" s="5"/>
+      <c r="Q91" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>23</v>
       </c>
@@ -2957,8 +3081,9 @@
       <c r="H92" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I92" s="5"/>
+    </row>
+    <row r="93" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>24</v>
       </c>
@@ -2980,8 +3105,9 @@
       <c r="H93" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I93" s="5"/>
+    </row>
+    <row r="94" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>18</v>
       </c>
@@ -3000,11 +3126,13 @@
       <c r="H94" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I94" s="8" t="s">
+      <c r="I94" s="5"/>
+      <c r="J94" s="8" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="K94" s="8"/>
+    </row>
+    <row r="95" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>21</v>
       </c>
@@ -3023,11 +3151,12 @@
       <c r="H95" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O95" s="5" t="s">
+      <c r="I95" s="5"/>
+      <c r="Q95" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>23</v>
       </c>
@@ -3047,8 +3176,9 @@
       <c r="H96" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I96" s="5"/>
+    </row>
+    <row r="97" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>24</v>
       </c>
@@ -3070,8 +3200,9 @@
       <c r="H97" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I97" s="5"/>
+    </row>
+    <row r="98" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>18</v>
       </c>
@@ -3090,8 +3221,9 @@
       <c r="H98" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I98" s="5"/>
+    </row>
+    <row r="99" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>18</v>
       </c>
@@ -3110,8 +3242,9 @@
       <c r="H99" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I99" s="5"/>
+    </row>
+    <row r="100" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>21</v>
       </c>
@@ -3130,8 +3263,9 @@
       <c r="H100" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I100" s="5"/>
+    </row>
+    <row r="101" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>23</v>
       </c>
@@ -3150,8 +3284,9 @@
       <c r="H101" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I101" s="5"/>
+    </row>
+    <row r="102" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>24</v>
       </c>
@@ -3173,8 +3308,9 @@
       <c r="H102" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I102" s="5"/>
+    </row>
+    <row r="103" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>18</v>
       </c>
@@ -3193,8 +3329,9 @@
       <c r="H103" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I103" s="5"/>
+    </row>
+    <row r="104" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>21</v>
       </c>
@@ -3213,8 +3350,9 @@
       <c r="H104" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I104" s="5"/>
+    </row>
+    <row r="105" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>23</v>
       </c>
@@ -3233,8 +3371,9 @@
       <c r="H105" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I105" s="5"/>
+    </row>
+    <row r="106" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>24</v>
       </c>
@@ -3256,8 +3395,9 @@
       <c r="H106" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I106" s="5"/>
+    </row>
+    <row r="107" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>18</v>
       </c>
@@ -3276,8 +3416,9 @@
       <c r="H107" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I107" s="5"/>
+    </row>
+    <row r="108" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>18</v>
       </c>
@@ -3296,8 +3437,9 @@
       <c r="H108" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I108" s="5"/>
+    </row>
+    <row r="109" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>21</v>
       </c>
@@ -3316,8 +3458,9 @@
       <c r="H109" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I109" s="5"/>
+    </row>
+    <row r="110" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>23</v>
       </c>
@@ -3336,8 +3479,9 @@
       <c r="H110" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I110" s="5"/>
+    </row>
+    <row r="111" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>24</v>
       </c>
@@ -3359,8 +3503,9 @@
       <c r="H111" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I111" s="5"/>
+    </row>
+    <row r="112" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>18</v>
       </c>
@@ -3379,8 +3524,9 @@
       <c r="H112" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I112" s="5"/>
+    </row>
+    <row r="113" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>21</v>
       </c>
@@ -3399,11 +3545,12 @@
       <c r="H113" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="O113" s="5" t="s">
+      <c r="I113" s="5"/>
+      <c r="Q113" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>23</v>
       </c>
@@ -3423,8 +3570,9 @@
       <c r="H114" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I114" s="5"/>
+    </row>
+    <row r="115" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>24</v>
       </c>
@@ -3446,8 +3594,9 @@
       <c r="H115" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I115" s="5"/>
+    </row>
+    <row r="116" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>18</v>
       </c>
@@ -3466,8 +3615,9 @@
       <c r="H116" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I116" s="5"/>
+    </row>
+    <row r="117" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>21</v>
       </c>
@@ -3486,11 +3636,13 @@
       <c r="H117" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I117" s="5" t="s">
+      <c r="I117" s="5"/>
+      <c r="J117" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="K117" s="5"/>
+    </row>
+    <row r="118" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>23</v>
       </c>
@@ -3509,11 +3661,13 @@
       <c r="H118" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I118" s="5" t="s">
+      <c r="I118" s="5"/>
+      <c r="J118" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="K118" s="5"/>
+    </row>
+    <row r="119" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>24</v>
       </c>
@@ -3535,11 +3689,13 @@
       <c r="H119" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I119" s="5" t="s">
+      <c r="I119" s="5"/>
+      <c r="J119" s="5" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="K119" s="5"/>
+    </row>
+    <row r="120" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>18</v>
       </c>
@@ -3558,8 +3714,9 @@
       <c r="H120" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I120" s="5"/>
+    </row>
+    <row r="121" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>21</v>
       </c>
@@ -3578,11 +3735,12 @@
       <c r="H121" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O121" s="5" t="s">
+      <c r="I121" s="5"/>
+      <c r="Q121" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>23</v>
       </c>
@@ -3602,8 +3760,9 @@
       <c r="H122" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I122" s="5"/>
+    </row>
+    <row r="123" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>24</v>
       </c>
@@ -3625,8 +3784,9 @@
       <c r="H123" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I123" s="5"/>
+    </row>
+    <row r="124" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>18</v>
       </c>
@@ -3645,8 +3805,9 @@
       <c r="H124" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I124" s="5"/>
+    </row>
+    <row r="125" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>21</v>
       </c>
@@ -3665,11 +3826,12 @@
       <c r="H125" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O125" s="5" t="s">
+      <c r="I125" s="5"/>
+      <c r="Q125" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>23</v>
       </c>
@@ -3689,8 +3851,9 @@
       <c r="H126" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="127" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I126" s="5"/>
+    </row>
+    <row r="127" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>24</v>
       </c>
@@ -3712,8 +3875,9 @@
       <c r="H127" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="128" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I127" s="5"/>
+    </row>
+    <row r="128" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>18</v>
       </c>
@@ -3732,8 +3896,9 @@
       <c r="H128" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I128" s="5"/>
+    </row>
+    <row r="129" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>21</v>
       </c>
@@ -3752,8 +3917,9 @@
       <c r="H129" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I129" s="5"/>
+    </row>
+    <row r="130" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>23</v>
       </c>
@@ -3772,8 +3938,9 @@
       <c r="H130" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I130" s="5"/>
+    </row>
+    <row r="131" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>24</v>
       </c>
@@ -3795,8 +3962,9 @@
       <c r="H131" s="5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I131" s="5"/>
+    </row>
+    <row r="132" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>18</v>
       </c>
@@ -3815,8 +3983,9 @@
       <c r="H132" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I132" s="5"/>
+    </row>
+    <row r="133" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>21</v>
       </c>
@@ -3835,11 +4004,12 @@
       <c r="H133" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O133" s="5" t="s">
+      <c r="I133" s="5"/>
+      <c r="Q133" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>23</v>
       </c>
@@ -3859,8 +4029,9 @@
       <c r="H134" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="135" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I134" s="5"/>
+    </row>
+    <row r="135" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>24</v>
       </c>
@@ -3882,8 +4053,9 @@
       <c r="H135" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="136" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I135" s="5"/>
+    </row>
+    <row r="136" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>18</v>
       </c>
@@ -3902,8 +4074,9 @@
       <c r="H136" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="137" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I136" s="5"/>
+    </row>
+    <row r="137" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>21</v>
       </c>
@@ -3922,8 +4095,9 @@
       <c r="H137" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="138" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I137" s="5"/>
+    </row>
+    <row r="138" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>23</v>
       </c>
@@ -3942,8 +4116,9 @@
       <c r="H138" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="139" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I138" s="5"/>
+    </row>
+    <row r="139" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>24</v>
       </c>
@@ -3965,8 +4140,9 @@
       <c r="H139" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="140" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I139" s="5"/>
+    </row>
+    <row r="140" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>18</v>
       </c>
@@ -3985,8 +4161,9 @@
       <c r="H140" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="141" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I140" s="5"/>
+    </row>
+    <row r="141" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>21</v>
       </c>
@@ -4005,11 +4182,12 @@
       <c r="H141" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O141" s="5" t="s">
+      <c r="I141" s="5"/>
+      <c r="Q141" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>23</v>
       </c>
@@ -4029,8 +4207,9 @@
       <c r="H142" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="143" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I142" s="5"/>
+    </row>
+    <row r="143" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>24</v>
       </c>
@@ -4052,8 +4231,9 @@
       <c r="H143" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="144" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I143" s="5"/>
+    </row>
+    <row r="144" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>18</v>
       </c>
@@ -4072,8 +4252,9 @@
       <c r="H144" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="145" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I144" s="5"/>
+    </row>
+    <row r="145" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>21</v>
       </c>
@@ -4092,8 +4273,9 @@
       <c r="H145" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="146" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I145" s="5"/>
+    </row>
+    <row r="146" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>23</v>
       </c>
@@ -4112,8 +4294,9 @@
       <c r="H146" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="147" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I146" s="5"/>
+    </row>
+    <row r="147" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>24</v>
       </c>
@@ -4135,8 +4318,9 @@
       <c r="H147" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="148" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I147" s="5"/>
+    </row>
+    <row r="148" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>18</v>
       </c>
@@ -4155,8 +4339,9 @@
       <c r="H148" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="149" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I148" s="5"/>
+    </row>
+    <row r="149" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>21</v>
       </c>
@@ -4175,11 +4360,12 @@
       <c r="H149" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O149" s="5" t="s">
+      <c r="I149" s="5"/>
+      <c r="Q149" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>23</v>
       </c>
@@ -4199,8 +4385,9 @@
       <c r="H150" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="151" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I150" s="5"/>
+    </row>
+    <row r="151" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>24</v>
       </c>
@@ -4222,8 +4409,9 @@
       <c r="H151" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="152" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I151" s="5"/>
+    </row>
+    <row r="152" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>18</v>
       </c>
@@ -4242,8 +4430,9 @@
       <c r="H152" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="153" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I152" s="5"/>
+    </row>
+    <row r="153" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>21</v>
       </c>
@@ -4262,8 +4451,9 @@
       <c r="H153" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="154" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I153" s="5"/>
+    </row>
+    <row r="154" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>23</v>
       </c>
@@ -4282,8 +4472,9 @@
       <c r="H154" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="155" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I154" s="5"/>
+    </row>
+    <row r="155" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>24</v>
       </c>
@@ -4305,8 +4496,9 @@
       <c r="H155" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="156" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I155" s="5"/>
+    </row>
+    <row r="156" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>18</v>
       </c>
@@ -4325,8 +4517,9 @@
       <c r="H156" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="157" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I156" s="5"/>
+    </row>
+    <row r="157" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>21</v>
       </c>
@@ -4345,8 +4538,9 @@
       <c r="H157" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="158" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I157" s="5"/>
+    </row>
+    <row r="158" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>23</v>
       </c>
@@ -4365,8 +4559,9 @@
       <c r="H158" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="159" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I158" s="5"/>
+    </row>
+    <row r="159" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>24</v>
       </c>
@@ -4388,8 +4583,9 @@
       <c r="H159" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="160" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I159" s="5"/>
+    </row>
+    <row r="160" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>18</v>
       </c>
@@ -4408,8 +4604,9 @@
       <c r="H160" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="161" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I160" s="5"/>
+    </row>
+    <row r="161" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>21</v>
       </c>
@@ -4428,8 +4625,9 @@
       <c r="H161" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="162" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I161" s="5"/>
+    </row>
+    <row r="162" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>23</v>
       </c>
@@ -4448,8 +4646,9 @@
       <c r="H162" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="163" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I162" s="5"/>
+    </row>
+    <row r="163" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>24</v>
       </c>
@@ -4471,8 +4670,9 @@
       <c r="H163" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="164" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I163" s="5"/>
+    </row>
+    <row r="164" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>18</v>
       </c>
@@ -4491,8 +4691,9 @@
       <c r="H164" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="165" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I164" s="5"/>
+    </row>
+    <row r="165" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>21</v>
       </c>
@@ -4511,11 +4712,12 @@
       <c r="H165" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O165" s="5" t="s">
+      <c r="I165" s="5"/>
+      <c r="Q165" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>23</v>
       </c>
@@ -4535,8 +4737,9 @@
       <c r="H166" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="167" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I166" s="5"/>
+    </row>
+    <row r="167" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>24</v>
       </c>
@@ -4558,8 +4761,9 @@
       <c r="H167" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="168" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I167" s="5"/>
+    </row>
+    <row r="168" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>18</v>
       </c>
@@ -4578,8 +4782,9 @@
       <c r="H168" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="169" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I168" s="5"/>
+    </row>
+    <row r="169" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>21</v>
       </c>
@@ -4598,11 +4803,12 @@
       <c r="H169" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O169" s="5" t="s">
+      <c r="I169" s="5"/>
+      <c r="Q169" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>23</v>
       </c>
@@ -4622,8 +4828,9 @@
       <c r="H170" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="171" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I170" s="5"/>
+    </row>
+    <row r="171" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>24</v>
       </c>
@@ -4645,8 +4852,9 @@
       <c r="H171" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="172" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I171" s="5"/>
+    </row>
+    <row r="172" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>18</v>
       </c>
@@ -4665,8 +4873,9 @@
       <c r="H172" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="173" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I172" s="5"/>
+    </row>
+    <row r="173" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>21</v>
       </c>
@@ -4685,8 +4894,9 @@
       <c r="H173" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="174" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I173" s="5"/>
+    </row>
+    <row r="174" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>23</v>
       </c>
@@ -4705,8 +4915,9 @@
       <c r="H174" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="175" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I174" s="5"/>
+    </row>
+    <row r="175" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>24</v>
       </c>
@@ -4728,8 +4939,9 @@
       <c r="H175" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="176" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I175" s="5"/>
+    </row>
+    <row r="176" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>18</v>
       </c>
@@ -4748,8 +4960,9 @@
       <c r="H176" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="177" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I176" s="5"/>
+    </row>
+    <row r="177" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>21</v>
       </c>
@@ -4768,11 +4981,12 @@
       <c r="H177" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O177" s="5" t="s">
+      <c r="I177" s="5"/>
+      <c r="Q177" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>23</v>
       </c>
@@ -4792,8 +5006,9 @@
       <c r="H178" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="179" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I178" s="5"/>
+    </row>
+    <row r="179" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>24</v>
       </c>
@@ -4812,8 +5027,9 @@
       <c r="H179" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="180" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I179" s="5"/>
+    </row>
+    <row r="180" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>18</v>
       </c>
@@ -4832,8 +5048,9 @@
       <c r="H180" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="181" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I180" s="5"/>
+    </row>
+    <row r="181" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>21</v>
       </c>
@@ -4852,8 +5069,9 @@
       <c r="H181" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="182" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I181" s="5"/>
+    </row>
+    <row r="182" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
         <v>23</v>
       </c>
@@ -4872,8 +5090,9 @@
       <c r="H182" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="183" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I182" s="5"/>
+    </row>
+    <row r="183" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>24</v>
       </c>
@@ -4895,8 +5114,9 @@
       <c r="H183" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="184" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I183" s="5"/>
+    </row>
+    <row r="184" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
         <v>18</v>
       </c>
@@ -4915,8 +5135,9 @@
       <c r="H184" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="185" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I184" s="5"/>
+    </row>
+    <row r="185" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
         <v>21</v>
       </c>
@@ -4935,11 +5156,12 @@
       <c r="H185" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O185" s="5" t="s">
+      <c r="I185" s="5"/>
+      <c r="Q185" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
         <v>23</v>
       </c>
@@ -4959,8 +5181,9 @@
       <c r="H186" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="187" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I186" s="5"/>
+    </row>
+    <row r="187" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
         <v>24</v>
       </c>
@@ -4982,8 +5205,9 @@
       <c r="H187" s="5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="188" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I187" s="5"/>
+    </row>
+    <row r="188" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
         <v>18</v>
       </c>
@@ -5002,8 +5226,9 @@
       <c r="H188" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="189" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I188" s="5"/>
+    </row>
+    <row r="189" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
         <v>21</v>
       </c>
@@ -5022,8 +5247,9 @@
       <c r="H189" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="190" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I189" s="5"/>
+    </row>
+    <row r="190" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>23</v>
       </c>
@@ -5042,8 +5268,9 @@
       <c r="H190" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="191" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I190" s="5"/>
+    </row>
+    <row r="191" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>24</v>
       </c>
@@ -5065,8 +5292,9 @@
       <c r="H191" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="192" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I191" s="5"/>
+    </row>
+    <row r="192" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>18</v>
       </c>
@@ -5085,8 +5313,9 @@
       <c r="H192" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="193" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I192" s="5"/>
+    </row>
+    <row r="193" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>21</v>
       </c>
@@ -5105,11 +5334,12 @@
       <c r="H193" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O193" s="5" t="s">
+      <c r="I193" s="5"/>
+      <c r="Q193" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="194" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>23</v>
       </c>
@@ -5129,8 +5359,9 @@
       <c r="H194" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="195" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I194" s="5"/>
+    </row>
+    <row r="195" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>24</v>
       </c>
@@ -5152,8 +5383,9 @@
       <c r="H195" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="196" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I195" s="5"/>
+    </row>
+    <row r="196" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>18</v>
       </c>
@@ -5172,8 +5404,9 @@
       <c r="H196" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="197" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I196" s="5"/>
+    </row>
+    <row r="197" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>21</v>
       </c>
@@ -5192,8 +5425,9 @@
       <c r="H197" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="198" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I197" s="5"/>
+    </row>
+    <row r="198" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>23</v>
       </c>
@@ -5212,8 +5446,9 @@
       <c r="H198" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="199" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I198" s="5"/>
+    </row>
+    <row r="199" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>24</v>
       </c>
@@ -5235,8 +5470,9 @@
       <c r="H199" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="200" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I199" s="5"/>
+    </row>
+    <row r="200" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
         <v>18</v>
       </c>
@@ -5255,8 +5491,9 @@
       <c r="H200" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="201" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I200" s="5"/>
+    </row>
+    <row r="201" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>21</v>
       </c>
@@ -5275,11 +5512,12 @@
       <c r="H201" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O201" s="5" t="s">
+      <c r="I201" s="5"/>
+      <c r="Q201" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="202" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
         <v>23</v>
       </c>
@@ -5299,8 +5537,9 @@
       <c r="H202" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="203" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I202" s="5"/>
+    </row>
+    <row r="203" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
         <v>24</v>
       </c>
@@ -5322,8 +5561,9 @@
       <c r="H203" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="204" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I203" s="5"/>
+    </row>
+    <row r="204" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
         <v>18</v>
       </c>
@@ -5342,8 +5582,9 @@
       <c r="H204" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="205" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I204" s="5"/>
+    </row>
+    <row r="205" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
         <v>21</v>
       </c>
@@ -5362,8 +5603,9 @@
       <c r="H205" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="206" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I205" s="5"/>
+    </row>
+    <row r="206" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
         <v>23</v>
       </c>
@@ -5382,8 +5624,9 @@
       <c r="H206" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="207" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I206" s="5"/>
+    </row>
+    <row r="207" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
         <v>24</v>
       </c>
@@ -5405,8 +5648,9 @@
       <c r="H207" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="208" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I207" s="5"/>
+    </row>
+    <row r="208" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
         <v>18</v>
       </c>
@@ -5425,8 +5669,9 @@
       <c r="H208" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="209" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I208" s="5"/>
+    </row>
+    <row r="209" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
         <v>21</v>
       </c>
@@ -5445,11 +5690,12 @@
       <c r="H209" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O209" s="5" t="s">
+      <c r="I209" s="5"/>
+      <c r="Q209" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="210" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
         <v>23</v>
       </c>
@@ -5469,8 +5715,9 @@
       <c r="H210" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="211" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I210" s="5"/>
+    </row>
+    <row r="211" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
         <v>24</v>
       </c>
@@ -5492,8 +5739,9 @@
       <c r="H211" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="212" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I211" s="5"/>
+    </row>
+    <row r="212" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
         <v>18</v>
       </c>
@@ -5512,8 +5760,9 @@
       <c r="H212" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="213" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I212" s="5"/>
+    </row>
+    <row r="213" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
         <v>21</v>
       </c>
@@ -5532,11 +5781,12 @@
       <c r="H213" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O213" s="5" t="s">
+      <c r="I213" s="5"/>
+      <c r="Q213" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="214" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
         <v>23</v>
       </c>
@@ -5556,8 +5806,9 @@
       <c r="H214" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="215" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I214" s="5"/>
+    </row>
+    <row r="215" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
         <v>24</v>
       </c>
@@ -5579,8 +5830,9 @@
       <c r="H215" s="5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="216" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I215" s="5"/>
+    </row>
+    <row r="216" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
         <v>18</v>
       </c>
@@ -5599,8 +5851,9 @@
       <c r="H216" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="217" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I216" s="5"/>
+    </row>
+    <row r="217" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
         <v>21</v>
       </c>
@@ -5619,8 +5872,9 @@
       <c r="H217" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="218" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I217" s="5"/>
+    </row>
+    <row r="218" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
         <v>23</v>
       </c>
@@ -5639,8 +5893,9 @@
       <c r="H218" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="219" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I218" s="5"/>
+    </row>
+    <row r="219" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
         <v>24</v>
       </c>
@@ -5662,11 +5917,13 @@
       <c r="H219" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I219" s="8" t="s">
+      <c r="I219" s="5"/>
+      <c r="J219" s="8" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="220" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="K219" s="8"/>
+    </row>
+    <row r="220" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
         <v>18</v>
       </c>
@@ -5685,8 +5942,9 @@
       <c r="H220" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="221" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I220" s="5"/>
+    </row>
+    <row r="221" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
         <v>21</v>
       </c>
@@ -5705,8 +5963,9 @@
       <c r="H221" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="222" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I221" s="5"/>
+    </row>
+    <row r="222" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
         <v>23</v>
       </c>
@@ -5725,8 +5984,9 @@
       <c r="H222" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="223" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I222" s="5"/>
+    </row>
+    <row r="223" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
         <v>24</v>
       </c>
@@ -5748,8 +6008,9 @@
       <c r="H223" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="224" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I223" s="5"/>
+    </row>
+    <row r="224" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
         <v>18</v>
       </c>
@@ -5768,8 +6029,9 @@
       <c r="H224" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="225" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I224" s="5"/>
+    </row>
+    <row r="225" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
         <v>21</v>
       </c>
@@ -5788,8 +6050,9 @@
       <c r="H225" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="226" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I225" s="5"/>
+    </row>
+    <row r="226" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
         <v>23</v>
       </c>
@@ -5808,8 +6071,9 @@
       <c r="H226" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="227" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I226" s="5"/>
+    </row>
+    <row r="227" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
         <v>24</v>
       </c>
@@ -5831,8 +6095,9 @@
       <c r="H227" s="5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="228" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I227" s="5"/>
+    </row>
+    <row r="228" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
         <v>18</v>
       </c>
@@ -5851,8 +6116,9 @@
       <c r="H228" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="229" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I228" s="5"/>
+    </row>
+    <row r="229" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
         <v>21</v>
       </c>
@@ -5871,8 +6137,9 @@
       <c r="H229" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="230" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I229" s="5"/>
+    </row>
+    <row r="230" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
         <v>23</v>
       </c>
@@ -5891,8 +6158,9 @@
       <c r="H230" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="231" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I230" s="5"/>
+    </row>
+    <row r="231" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
         <v>24</v>
       </c>
@@ -5914,8 +6182,9 @@
       <c r="H231" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="232" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I231" s="5"/>
+    </row>
+    <row r="232" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
         <v>18</v>
       </c>
@@ -5934,8 +6203,9 @@
       <c r="H232" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="233" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I232" s="5"/>
+    </row>
+    <row r="233" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
         <v>21</v>
       </c>
@@ -5954,8 +6224,9 @@
       <c r="H233" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="234" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I233" s="5"/>
+    </row>
+    <row r="234" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
         <v>23</v>
       </c>
@@ -5974,8 +6245,9 @@
       <c r="H234" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="235" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I234" s="5"/>
+    </row>
+    <row r="235" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
         <v>24</v>
       </c>
@@ -5997,8 +6269,9 @@
       <c r="H235" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="236" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I235" s="5"/>
+    </row>
+    <row r="236" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
         <v>18</v>
       </c>
@@ -6017,8 +6290,9 @@
       <c r="H236" s="5" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="237" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I236" s="5"/>
+    </row>
+    <row r="237" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
         <v>21</v>
       </c>
@@ -6037,11 +6311,12 @@
       <c r="H237" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O237" s="5" t="s">
+      <c r="I237" s="5"/>
+      <c r="Q237" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="238" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
         <v>23</v>
       </c>
@@ -6061,8 +6336,9 @@
       <c r="H238" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="239" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I238" s="5"/>
+    </row>
+    <row r="239" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
         <v>24</v>
       </c>
@@ -6084,8 +6360,9 @@
       <c r="H239" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="240" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I239" s="5"/>
+    </row>
+    <row r="240" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
         <v>18</v>
       </c>
@@ -6104,8 +6381,9 @@
       <c r="H240" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="241" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I240" s="5"/>
+    </row>
+    <row r="241" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
         <v>21</v>
       </c>
@@ -6124,8 +6402,9 @@
       <c r="H241" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="242" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I241" s="5"/>
+    </row>
+    <row r="242" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
         <v>23</v>
       </c>
@@ -6144,8 +6423,9 @@
       <c r="H242" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="243" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I242" s="5"/>
+    </row>
+    <row r="243" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
         <v>24</v>
       </c>
@@ -6167,8 +6447,9 @@
       <c r="H243" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="244" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I243" s="5"/>
+    </row>
+    <row r="244" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
         <v>18</v>
       </c>
@@ -6187,8 +6468,9 @@
       <c r="H244" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="245" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I244" s="5"/>
+    </row>
+    <row r="245" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
         <v>21</v>
       </c>
@@ -6207,8 +6489,9 @@
       <c r="H245" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="246" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I245" s="5"/>
+    </row>
+    <row r="246" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
         <v>23</v>
       </c>
@@ -6227,8 +6510,9 @@
       <c r="H246" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="247" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I246" s="5"/>
+    </row>
+    <row r="247" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
         <v>24</v>
       </c>
@@ -6250,8 +6534,9 @@
       <c r="H247" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="248" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I247" s="5"/>
+    </row>
+    <row r="248" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
         <v>18</v>
       </c>
@@ -6270,8 +6555,9 @@
       <c r="H248" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="249" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I248" s="5"/>
+    </row>
+    <row r="249" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
         <v>21</v>
       </c>
@@ -6290,11 +6576,12 @@
       <c r="H249" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O249" s="5" t="s">
+      <c r="I249" s="5"/>
+      <c r="Q249" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="250" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
         <v>23</v>
       </c>
@@ -6314,8 +6601,9 @@
       <c r="H250" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="251" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I250" s="5"/>
+    </row>
+    <row r="251" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
         <v>24</v>
       </c>
@@ -6337,8 +6625,9 @@
       <c r="H251" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="252" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I251" s="5"/>
+    </row>
+    <row r="252" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
         <v>18</v>
       </c>
@@ -6357,8 +6646,9 @@
       <c r="H252" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="253" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I252" s="5"/>
+    </row>
+    <row r="253" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
         <v>21</v>
       </c>
@@ -6377,8 +6667,9 @@
       <c r="H253" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="254" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I253" s="5"/>
+    </row>
+    <row r="254" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
         <v>23</v>
       </c>
@@ -6397,8 +6688,9 @@
       <c r="H254" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="255" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I254" s="5"/>
+    </row>
+    <row r="255" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
         <v>24</v>
       </c>
@@ -6420,8 +6712,9 @@
       <c r="H255" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="256" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I255" s="5"/>
+    </row>
+    <row r="256" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
         <v>18</v>
       </c>
@@ -6440,8 +6733,9 @@
       <c r="H256" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="257" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I256" s="5"/>
+    </row>
+    <row r="257" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
         <v>21</v>
       </c>
@@ -6460,8 +6754,9 @@
       <c r="H257" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="258" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I257" s="5"/>
+    </row>
+    <row r="258" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
         <v>23</v>
       </c>
@@ -6480,8 +6775,9 @@
       <c r="H258" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="259" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I258" s="5"/>
+    </row>
+    <row r="259" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
         <v>24</v>
       </c>
@@ -6503,8 +6799,9 @@
       <c r="H259" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="260" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I259" s="5"/>
+    </row>
+    <row r="260" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
         <v>18</v>
       </c>
@@ -6523,8 +6820,9 @@
       <c r="H260" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="261" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I260" s="5"/>
+    </row>
+    <row r="261" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
         <v>21</v>
       </c>
@@ -6543,11 +6841,12 @@
       <c r="H261" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O261" s="5" t="s">
+      <c r="I261" s="5"/>
+      <c r="Q261" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="262" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
         <v>23</v>
       </c>
@@ -6567,8 +6866,9 @@
       <c r="H262" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="263" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I262" s="5"/>
+    </row>
+    <row r="263" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
         <v>24</v>
       </c>
@@ -6590,8 +6890,9 @@
       <c r="H263" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="264" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I263" s="5"/>
+    </row>
+    <row r="264" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
         <v>18</v>
       </c>
@@ -6610,8 +6911,9 @@
       <c r="H264" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="265" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I264" s="5"/>
+    </row>
+    <row r="265" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
         <v>21</v>
       </c>
@@ -6630,8 +6932,9 @@
       <c r="H265" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="266" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I265" s="5"/>
+    </row>
+    <row r="266" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
         <v>23</v>
       </c>
@@ -6650,8 +6953,9 @@
       <c r="H266" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="267" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I266" s="5"/>
+    </row>
+    <row r="267" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
         <v>24</v>
       </c>
@@ -6673,8 +6977,9 @@
       <c r="H267" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="268" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I267" s="5"/>
+    </row>
+    <row r="268" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
         <v>18</v>
       </c>
@@ -6693,8 +6998,9 @@
       <c r="H268" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="269" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I268" s="5"/>
+    </row>
+    <row r="269" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
         <v>21</v>
       </c>
@@ -6713,8 +7019,9 @@
       <c r="H269" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="270" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I269" s="5"/>
+    </row>
+    <row r="270" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
         <v>23</v>
       </c>
@@ -6733,8 +7040,9 @@
       <c r="H270" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="271" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I270" s="5"/>
+    </row>
+    <row r="271" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
         <v>24</v>
       </c>
@@ -6756,8 +7064,9 @@
       <c r="H271" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="272" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I271" s="5"/>
+    </row>
+    <row r="272" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
         <v>18</v>
       </c>
@@ -6776,8 +7085,9 @@
       <c r="H272" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="273" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I272" s="5"/>
+    </row>
+    <row r="273" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
         <v>21</v>
       </c>
@@ -6796,11 +7106,12 @@
       <c r="H273" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O273" s="5" t="s">
+      <c r="I273" s="5"/>
+      <c r="Q273" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="274" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
         <v>23</v>
       </c>
@@ -6820,8 +7131,9 @@
       <c r="H274" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="275" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I274" s="5"/>
+    </row>
+    <row r="275" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
         <v>24</v>
       </c>
@@ -6843,8 +7155,9 @@
       <c r="H275" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="276" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I275" s="5"/>
+    </row>
+    <row r="276" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
         <v>119</v>
       </c>
@@ -6858,14 +7171,14 @@
       <c r="F276" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I276" t="s">
+      <c r="J276" t="s">
         <v>159</v>
       </c>
-      <c r="J276" t="s">
+      <c r="L276" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="277" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
         <v>18</v>
       </c>
@@ -6884,14 +7197,15 @@
       <c r="H277" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="I277" t="s">
+      <c r="I277" s="5"/>
+      <c r="J277" t="s">
         <v>159</v>
       </c>
-      <c r="J277" t="s">
+      <c r="L277" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="278" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
         <v>21</v>
       </c>
@@ -6910,14 +7224,15 @@
       <c r="H278" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I278" t="s">
+      <c r="I278" s="5"/>
+      <c r="J278" t="s">
         <v>159</v>
       </c>
-      <c r="J278" t="s">
+      <c r="L278" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="279" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
         <v>24</v>
       </c>
@@ -6939,14 +7254,15 @@
       <c r="H279" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I279" t="s">
+      <c r="I279" s="5"/>
+      <c r="J279" t="s">
         <v>159</v>
       </c>
-      <c r="J279" t="s">
+      <c r="L279" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="280" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
         <v>24</v>
       </c>
@@ -6968,35 +7284,36 @@
       <c r="H280" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I280" t="s">
+      <c r="I280" s="5"/>
+      <c r="J280" t="s">
         <v>159</v>
       </c>
-      <c r="J280" s="5" t="s">
+      <c r="L280" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="281" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C281" s="7"/>
     </row>
-    <row r="282" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C282" s="7"/>
     </row>
-    <row r="283" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C283" s="7"/>
     </row>
-    <row r="284" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C284" s="7"/>
     </row>
-    <row r="285" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C285" s="7"/>
     </row>
-    <row r="286" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C286" s="7"/>
     </row>
-    <row r="287" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C287" s="7"/>
     </row>
-    <row r="288" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C288" s="7"/>
     </row>
     <row r="289" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -9146,20 +9463,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB998"/>
+  <dimension ref="A1:AD998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="17" customWidth="1"/>
-    <col min="9" max="9" width="32.77734375" customWidth="1"/>
-    <col min="10" max="10" width="32.6640625" customWidth="1"/>
+    <col min="9" max="10" width="32.77734375" customWidth="1"/>
+    <col min="11" max="12" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9188,37 +9505,41 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
@@ -9226,8 +9547,10 @@
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
-    </row>
-    <row r="2" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+    </row>
+    <row r="2" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>21</v>
       </c>
@@ -9249,8 +9572,11 @@
       <c r="I2" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J2" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
@@ -9272,8 +9598,12 @@
       <c r="I3" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J3" s="5"/>
+      <c r="L3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
@@ -9295,8 +9625,9 @@
       <c r="I4" s="5" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
@@ -9318,8 +9649,9 @@
       <c r="I5" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
@@ -9341,8 +9673,9 @@
       <c r="I6" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
@@ -9364,8 +9697,9 @@
       <c r="I7" s="5" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
@@ -9387,8 +9721,9 @@
       <c r="I8" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
@@ -9410,8 +9745,9 @@
       <c r="I9" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
@@ -9433,8 +9769,9 @@
       <c r="I10" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
@@ -9456,8 +9793,9 @@
       <c r="I11" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
@@ -9479,8 +9817,9 @@
       <c r="I12" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
@@ -9502,8 +9841,9 @@
       <c r="I13" s="5" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
@@ -9525,8 +9865,9 @@
       <c r="I14" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
@@ -9548,8 +9889,9 @@
       <c r="I15" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>24</v>
       </c>
@@ -9571,8 +9913,9 @@
       <c r="I16" s="5" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -9594,8 +9937,9 @@
       <c r="I17" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>23</v>
       </c>
@@ -9617,8 +9961,9 @@
       <c r="I18" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>24</v>
       </c>
@@ -9640,8 +9985,9 @@
       <c r="I19" s="5" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -9663,8 +10009,9 @@
       <c r="I20" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
@@ -9686,8 +10033,9 @@
       <c r="I21" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
@@ -9709,8 +10057,9 @@
       <c r="I22" s="5" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -9732,8 +10081,9 @@
       <c r="I23" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
@@ -9755,8 +10105,9 @@
       <c r="I24" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
@@ -9778,8 +10129,9 @@
       <c r="I25" s="5" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>21</v>
       </c>
@@ -9801,8 +10153,9 @@
       <c r="I26" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>23</v>
       </c>
@@ -9824,8 +10177,9 @@
       <c r="I27" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>24</v>
       </c>
@@ -9847,8 +10201,9 @@
       <c r="I28" s="5" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>21</v>
       </c>
@@ -9870,8 +10225,9 @@
       <c r="I29" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -9893,8 +10249,9 @@
       <c r="I30" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -9916,8 +10273,9 @@
       <c r="I31" s="5" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>21</v>
       </c>
@@ -9939,8 +10297,9 @@
       <c r="I32" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>23</v>
       </c>
@@ -9962,8 +10321,9 @@
       <c r="I33" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>24</v>
       </c>
@@ -9985,8 +10345,9 @@
       <c r="I34" s="5" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>21</v>
       </c>
@@ -10008,8 +10369,9 @@
       <c r="I35" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>23</v>
       </c>
@@ -10031,11 +10393,13 @@
       <c r="I36" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="J36" s="5" t="s">
+      <c r="J36" s="5"/>
+      <c r="K36" s="5" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L36" s="5"/>
+    </row>
+    <row r="37" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>24</v>
       </c>
@@ -10057,8 +10421,9 @@
       <c r="I37" s="5" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>23</v>
       </c>
@@ -10080,8 +10445,9 @@
       <c r="I38" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>23</v>
       </c>
@@ -10103,8 +10469,9 @@
       <c r="I39" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>24</v>
       </c>
@@ -10126,8 +10493,9 @@
       <c r="I40" s="5" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>21</v>
       </c>
@@ -10149,8 +10517,9 @@
       <c r="I41" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>23</v>
       </c>
@@ -10172,8 +10541,9 @@
       <c r="I42" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>24</v>
       </c>
@@ -10195,8 +10565,9 @@
       <c r="I43" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>21</v>
       </c>
@@ -10218,8 +10589,9 @@
       <c r="I44" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>23</v>
       </c>
@@ -10241,11 +10613,13 @@
       <c r="I45" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J45" s="5" t="s">
+      <c r="J45" s="5"/>
+      <c r="K45" s="5" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L45" s="5"/>
+    </row>
+    <row r="46" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>24</v>
       </c>
@@ -10267,8 +10641,9 @@
       <c r="I46" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>21</v>
       </c>
@@ -10290,8 +10665,9 @@
       <c r="I47" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>23</v>
       </c>
@@ -10313,8 +10689,9 @@
       <c r="I48" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>24</v>
       </c>
@@ -10336,8 +10713,9 @@
       <c r="I49" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>18</v>
       </c>
@@ -10359,8 +10737,9 @@
       <c r="I50" s="5" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>21</v>
       </c>
@@ -10382,8 +10761,9 @@
       <c r="I51" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>23</v>
       </c>
@@ -10405,11 +10785,13 @@
       <c r="I52" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J52" s="5" t="s">
+      <c r="J52" s="5"/>
+      <c r="K52" s="5" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L52" s="5"/>
+    </row>
+    <row r="53" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>24</v>
       </c>
@@ -10431,8 +10813,9 @@
       <c r="I53" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>18</v>
       </c>
@@ -10454,8 +10837,9 @@
       <c r="I54" s="5" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>21</v>
       </c>
@@ -10477,8 +10861,9 @@
       <c r="I55" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>23</v>
       </c>
@@ -10500,8 +10885,9 @@
       <c r="I56" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>24</v>
       </c>
@@ -10523,8 +10909,9 @@
       <c r="I57" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>21</v>
       </c>
@@ -10546,8 +10933,9 @@
       <c r="I58" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J58" s="5"/>
+    </row>
+    <row r="59" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>23</v>
       </c>
@@ -10569,11 +10957,13 @@
       <c r="I59" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J59" s="5" t="s">
+      <c r="J59" s="5"/>
+      <c r="K59" s="5" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L59" s="5"/>
+    </row>
+    <row r="60" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>24</v>
       </c>
@@ -10595,8 +10985,9 @@
       <c r="I60" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J60" s="5"/>
+    </row>
+    <row r="61" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>21</v>
       </c>
@@ -10618,8 +11009,9 @@
       <c r="I61" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J61" s="5"/>
+    </row>
+    <row r="62" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>23</v>
       </c>
@@ -10641,8 +11033,9 @@
       <c r="I62" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J62" s="5"/>
+    </row>
+    <row r="63" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>24</v>
       </c>
@@ -10664,8 +11057,9 @@
       <c r="I63" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J63" s="5"/>
+    </row>
+    <row r="64" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>21</v>
       </c>
@@ -10687,8 +11081,9 @@
       <c r="I64" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J64" s="5"/>
+    </row>
+    <row r="65" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>23</v>
       </c>
@@ -10710,11 +11105,13 @@
       <c r="I65" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J65" s="5" t="s">
+      <c r="J65" s="5"/>
+      <c r="K65" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L65" s="5"/>
+    </row>
+    <row r="66" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>24</v>
       </c>
@@ -10736,8 +11133,9 @@
       <c r="I66" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J66" s="5"/>
+    </row>
+    <row r="67" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>21</v>
       </c>
@@ -10759,8 +11157,9 @@
       <c r="I67" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J67" s="5"/>
+    </row>
+    <row r="68" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>23</v>
       </c>
@@ -10782,11 +11181,13 @@
       <c r="I68" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J68" s="5" t="s">
+      <c r="J68" s="5"/>
+      <c r="K68" s="5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L68" s="5"/>
+    </row>
+    <row r="69" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>24</v>
       </c>
@@ -10808,8 +11209,9 @@
       <c r="I69" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J69" s="5"/>
+    </row>
+    <row r="70" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>18</v>
       </c>
@@ -10831,8 +11233,9 @@
       <c r="I70" s="5" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J70" s="5"/>
+    </row>
+    <row r="71" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>23</v>
       </c>
@@ -10854,11 +11257,13 @@
       <c r="I71" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J71" s="5" t="s">
+      <c r="J71" s="5"/>
+      <c r="K71" s="5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L71" s="5"/>
+    </row>
+    <row r="72" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>24</v>
       </c>
@@ -10880,8 +11285,9 @@
       <c r="I72" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J72" s="5"/>
+    </row>
+    <row r="73" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>21</v>
       </c>
@@ -10903,8 +11309,9 @@
       <c r="I73" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J73" s="5"/>
+    </row>
+    <row r="74" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>23</v>
       </c>
@@ -10926,8 +11333,9 @@
       <c r="I74" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J74" s="5"/>
+    </row>
+    <row r="75" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>24</v>
       </c>
@@ -10949,8 +11357,9 @@
       <c r="I75" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J75" s="5"/>
+    </row>
+    <row r="76" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>21</v>
       </c>
@@ -10972,8 +11381,9 @@
       <c r="I76" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J76" s="5"/>
+    </row>
+    <row r="77" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>23</v>
       </c>
@@ -10995,11 +11405,13 @@
       <c r="I77" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J77" s="5" t="s">
+      <c r="J77" s="5"/>
+      <c r="K77" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L77" s="5"/>
+    </row>
+    <row r="78" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>24</v>
       </c>
@@ -11021,8 +11433,9 @@
       <c r="I78" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J78" s="5"/>
+    </row>
+    <row r="79" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>21</v>
       </c>
@@ -11044,8 +11457,9 @@
       <c r="I79" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J79" s="5"/>
+    </row>
+    <row r="80" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>23</v>
       </c>
@@ -11067,8 +11481,9 @@
       <c r="I80" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J80" s="5"/>
+    </row>
+    <row r="81" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>24</v>
       </c>
@@ -11090,8 +11505,9 @@
       <c r="I81" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J81" s="5"/>
+    </row>
+    <row r="82" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>21</v>
       </c>
@@ -11113,8 +11529,9 @@
       <c r="I82" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J82" s="5"/>
+    </row>
+    <row r="83" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>23</v>
       </c>
@@ -11136,11 +11553,13 @@
       <c r="I83" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J83" s="5" t="s">
+      <c r="J83" s="5"/>
+      <c r="K83" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L83" s="5"/>
+    </row>
+    <row r="84" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>24</v>
       </c>
@@ -11162,8 +11581,9 @@
       <c r="I84" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J84" s="5"/>
+    </row>
+    <row r="85" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>21</v>
       </c>
@@ -11185,8 +11605,9 @@
       <c r="I85" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J85" s="5"/>
+    </row>
+    <row r="86" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>23</v>
       </c>
@@ -11208,8 +11629,9 @@
       <c r="I86" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J86" s="5"/>
+    </row>
+    <row r="87" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>24</v>
       </c>
@@ -11231,8 +11653,9 @@
       <c r="I87" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J87" s="5"/>
+    </row>
+    <row r="88" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>21</v>
       </c>
@@ -11254,8 +11677,9 @@
       <c r="I88" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J88" s="5"/>
+    </row>
+    <row r="89" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>18</v>
       </c>
@@ -11277,8 +11701,9 @@
       <c r="I89" s="5" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J89" s="5"/>
+    </row>
+    <row r="90" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>23</v>
       </c>
@@ -11300,11 +11725,13 @@
       <c r="I90" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J90" s="5" t="s">
+      <c r="J90" s="5"/>
+      <c r="K90" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L90" s="5"/>
+    </row>
+    <row r="91" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>24</v>
       </c>
@@ -11326,8 +11753,9 @@
       <c r="I91" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J91" s="5"/>
+    </row>
+    <row r="92" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>21</v>
       </c>
@@ -11349,8 +11777,9 @@
       <c r="I92" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J92" s="5"/>
+    </row>
+    <row r="93" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>23</v>
       </c>
@@ -11372,8 +11801,9 @@
       <c r="I93" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J93" s="5"/>
+    </row>
+    <row r="94" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>24</v>
       </c>
@@ -11395,8 +11825,9 @@
       <c r="I94" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J94" s="5"/>
+    </row>
+    <row r="95" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>21</v>
       </c>
@@ -11418,8 +11849,9 @@
       <c r="I95" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J95" s="5"/>
+    </row>
+    <row r="96" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>18</v>
       </c>
@@ -11441,8 +11873,9 @@
       <c r="I96" s="5" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J96" s="5"/>
+    </row>
+    <row r="97" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>23</v>
       </c>
@@ -11464,11 +11897,13 @@
       <c r="I97" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J97" s="5" t="s">
+      <c r="J97" s="5"/>
+      <c r="K97" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L97" s="5"/>
+    </row>
+    <row r="98" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>24</v>
       </c>
@@ -11490,8 +11925,9 @@
       <c r="I98" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J98" s="5"/>
+    </row>
+    <row r="99" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>21</v>
       </c>
@@ -11513,8 +11949,9 @@
       <c r="I99" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J99" s="5"/>
+    </row>
+    <row r="100" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>23</v>
       </c>
@@ -11536,8 +11973,9 @@
       <c r="I100" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J100" s="5"/>
+    </row>
+    <row r="101" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>24</v>
       </c>
@@ -11559,8 +11997,9 @@
       <c r="I101" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J101" s="5"/>
+    </row>
+    <row r="102" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>21</v>
       </c>
@@ -11582,8 +12021,9 @@
       <c r="I102" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J102" s="5"/>
+    </row>
+    <row r="103" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>18</v>
       </c>
@@ -11605,8 +12045,9 @@
       <c r="I103" s="5" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J103" s="5"/>
+    </row>
+    <row r="104" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>23</v>
       </c>
@@ -11628,11 +12069,13 @@
       <c r="I104" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J104" s="5" t="s">
+      <c r="J104" s="5"/>
+      <c r="K104" s="5" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L104" s="5"/>
+    </row>
+    <row r="105" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>24</v>
       </c>
@@ -11654,8 +12097,9 @@
       <c r="I105" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J105" s="5"/>
+    </row>
+    <row r="106" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>21</v>
       </c>
@@ -11677,8 +12121,9 @@
       <c r="I106" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J106" s="5"/>
+    </row>
+    <row r="107" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>23</v>
       </c>
@@ -11700,11 +12145,13 @@
       <c r="I107" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J107" s="5" t="s">
+      <c r="J107" s="5"/>
+      <c r="K107" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L107" s="5"/>
+    </row>
+    <row r="108" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>24</v>
       </c>
@@ -11726,8 +12173,9 @@
       <c r="I108" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J108" s="5"/>
+    </row>
+    <row r="109" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>21</v>
       </c>
@@ -11749,8 +12197,9 @@
       <c r="I109" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J109" s="5"/>
+    </row>
+    <row r="110" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>23</v>
       </c>
@@ -11772,8 +12221,9 @@
       <c r="I110" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J110" s="5"/>
+    </row>
+    <row r="111" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>24</v>
       </c>
@@ -11795,8 +12245,9 @@
       <c r="I111" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J111" s="5"/>
+    </row>
+    <row r="112" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>21</v>
       </c>
@@ -11818,8 +12269,9 @@
       <c r="I112" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J112" s="5"/>
+    </row>
+    <row r="113" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>23</v>
       </c>
@@ -11841,11 +12293,13 @@
       <c r="I113" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J113" s="5" t="s">
+      <c r="J113" s="5"/>
+      <c r="K113" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L113" s="5"/>
+    </row>
+    <row r="114" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>24</v>
       </c>
@@ -11867,8 +12321,9 @@
       <c r="I114" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J114" s="5"/>
+    </row>
+    <row r="115" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>21</v>
       </c>
@@ -11890,8 +12345,9 @@
       <c r="I115" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J115" s="5"/>
+    </row>
+    <row r="116" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>23</v>
       </c>
@@ -11913,8 +12369,9 @@
       <c r="I116" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J116" s="5"/>
+    </row>
+    <row r="117" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>24</v>
       </c>
@@ -11936,8 +12393,9 @@
       <c r="I117" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J117" s="5"/>
+    </row>
+    <row r="118" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>21</v>
       </c>
@@ -11959,8 +12417,9 @@
       <c r="I118" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J118" s="5"/>
+    </row>
+    <row r="119" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>23</v>
       </c>
@@ -11982,11 +12441,13 @@
       <c r="I119" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J119" s="5" t="s">
+      <c r="J119" s="5"/>
+      <c r="K119" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L119" s="5"/>
+    </row>
+    <row r="120" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>24</v>
       </c>
@@ -12008,8 +12469,9 @@
       <c r="I120" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J120" s="5"/>
+    </row>
+    <row r="121" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>21</v>
       </c>
@@ -12031,8 +12493,9 @@
       <c r="I121" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J121" s="5"/>
+    </row>
+    <row r="122" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>23</v>
       </c>
@@ -12054,8 +12517,9 @@
       <c r="I122" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J122" s="5"/>
+    </row>
+    <row r="123" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>24</v>
       </c>
@@ -12077,8 +12541,9 @@
       <c r="I123" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J123" s="5"/>
+    </row>
+    <row r="124" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>21</v>
       </c>
@@ -12100,8 +12565,9 @@
       <c r="I124" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J124" s="5"/>
+    </row>
+    <row r="125" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>23</v>
       </c>
@@ -12123,11 +12589,13 @@
       <c r="I125" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J125" s="5" t="s">
+      <c r="J125" s="5"/>
+      <c r="K125" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L125" s="5"/>
+    </row>
+    <row r="126" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>24</v>
       </c>
@@ -12149,8 +12617,9 @@
       <c r="I126" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J126" s="5"/>
+    </row>
+    <row r="127" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>21</v>
       </c>
@@ -12172,8 +12641,9 @@
       <c r="I127" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J127" s="5"/>
+    </row>
+    <row r="128" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>23</v>
       </c>
@@ -12195,8 +12665,9 @@
       <c r="I128" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J128" s="5"/>
+    </row>
+    <row r="129" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>24</v>
       </c>
@@ -12218,8 +12689,9 @@
       <c r="I129" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J129" s="5"/>
+    </row>
+    <row r="130" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>21</v>
       </c>
@@ -12241,8 +12713,9 @@
       <c r="I130" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J130" s="5"/>
+    </row>
+    <row r="131" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>23</v>
       </c>
@@ -12264,11 +12737,13 @@
       <c r="I131" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J131" s="5" t="s">
+      <c r="J131" s="5"/>
+      <c r="K131" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L131" s="5"/>
+    </row>
+    <row r="132" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>24</v>
       </c>
@@ -12290,8 +12765,9 @@
       <c r="I132" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J132" s="5"/>
+    </row>
+    <row r="133" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>21</v>
       </c>
@@ -12313,8 +12789,9 @@
       <c r="I133" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J133" s="5"/>
+    </row>
+    <row r="134" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>23</v>
       </c>
@@ -12336,8 +12813,9 @@
       <c r="I134" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J134" s="5"/>
+    </row>
+    <row r="135" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>24</v>
       </c>
@@ -12359,8 +12837,9 @@
       <c r="I135" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J135" s="5"/>
+    </row>
+    <row r="136" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>21</v>
       </c>
@@ -12382,8 +12861,9 @@
       <c r="I136" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J136" s="5"/>
+    </row>
+    <row r="137" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>23</v>
       </c>
@@ -12405,11 +12885,13 @@
       <c r="I137" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J137" s="5" t="s">
+      <c r="J137" s="5"/>
+      <c r="K137" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L137" s="5"/>
+    </row>
+    <row r="138" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>24</v>
       </c>
@@ -12431,8 +12913,9 @@
       <c r="I138" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J138" s="5"/>
+    </row>
+    <row r="139" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>21</v>
       </c>
@@ -12454,8 +12937,9 @@
       <c r="I139" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J139" s="5"/>
+    </row>
+    <row r="140" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>23</v>
       </c>
@@ -12477,11 +12961,13 @@
       <c r="I140" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J140" s="5" t="s">
+      <c r="J140" s="5"/>
+      <c r="K140" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L140" s="5"/>
+    </row>
+    <row r="141" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>24</v>
       </c>
@@ -12503,8 +12989,9 @@
       <c r="I141" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J141" s="5"/>
+    </row>
+    <row r="142" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>21</v>
       </c>
@@ -12526,8 +13013,9 @@
       <c r="I142" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J142" s="5"/>
+    </row>
+    <row r="143" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>23</v>
       </c>
@@ -12549,8 +13037,9 @@
       <c r="I143" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J143" s="5"/>
+    </row>
+    <row r="144" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>24</v>
       </c>
@@ -12572,8 +13061,9 @@
       <c r="I144" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J144" s="5"/>
+    </row>
+    <row r="145" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>21</v>
       </c>
@@ -12595,8 +13085,9 @@
       <c r="I145" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J145" s="5"/>
+    </row>
+    <row r="146" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>23</v>
       </c>
@@ -12618,11 +13109,13 @@
       <c r="I146" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J146" s="5" t="s">
+      <c r="J146" s="5"/>
+      <c r="K146" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L146" s="5"/>
+    </row>
+    <row r="147" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>24</v>
       </c>
@@ -12644,8 +13137,9 @@
       <c r="I147" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J147" s="5"/>
+    </row>
+    <row r="148" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>21</v>
       </c>
@@ -12667,8 +13161,9 @@
       <c r="I148" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J148" s="5"/>
+    </row>
+    <row r="149" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>23</v>
       </c>
@@ -12690,8 +13185,9 @@
       <c r="I149" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J149" s="5"/>
+    </row>
+    <row r="150" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>24</v>
       </c>
@@ -12713,8 +13209,9 @@
       <c r="I150" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J150" s="5"/>
+    </row>
+    <row r="151" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>21</v>
       </c>
@@ -12736,8 +13233,9 @@
       <c r="I151" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J151" s="5"/>
+    </row>
+    <row r="152" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>23</v>
       </c>
@@ -12759,11 +13257,13 @@
       <c r="I152" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J152" s="5" t="s">
+      <c r="J152" s="5"/>
+      <c r="K152" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L152" s="5"/>
+    </row>
+    <row r="153" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>24</v>
       </c>
@@ -12785,8 +13285,9 @@
       <c r="I153" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J153" s="5"/>
+    </row>
+    <row r="154" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>21</v>
       </c>
@@ -12808,8 +13309,9 @@
       <c r="I154" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J154" s="5"/>
+    </row>
+    <row r="155" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>18</v>
       </c>
@@ -12831,8 +13333,9 @@
       <c r="I155" s="5" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J155" s="5"/>
+    </row>
+    <row r="156" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>18</v>
       </c>
@@ -12854,11 +13357,13 @@
       <c r="I156" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="J156" s="5" t="s">
+      <c r="J156" s="5"/>
+      <c r="K156" s="5" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L156" s="5"/>
+    </row>
+    <row r="157" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>23</v>
       </c>
@@ -12880,8 +13385,9 @@
       <c r="I157" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J157" s="5"/>
+    </row>
+    <row r="158" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>24</v>
       </c>
@@ -12903,8 +13409,9 @@
       <c r="I158" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J158" s="5"/>
+    </row>
+    <row r="159" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>21</v>
       </c>
@@ -12926,8 +13433,9 @@
       <c r="I159" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J159" s="5"/>
+    </row>
+    <row r="160" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>23</v>
       </c>
@@ -12949,11 +13457,13 @@
       <c r="I160" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J160" s="5" t="s">
+      <c r="J160" s="5"/>
+      <c r="K160" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L160" s="5"/>
+    </row>
+    <row r="161" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>24</v>
       </c>
@@ -12975,8 +13485,9 @@
       <c r="I161" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J161" s="5"/>
+    </row>
+    <row r="162" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>21</v>
       </c>
@@ -12998,8 +13509,9 @@
       <c r="I162" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J162" s="5"/>
+    </row>
+    <row r="163" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>23</v>
       </c>
@@ -13021,8 +13533,9 @@
       <c r="I163" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J163" s="5"/>
+    </row>
+    <row r="164" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>24</v>
       </c>
@@ -13044,8 +13557,9 @@
       <c r="I164" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J164" s="5"/>
+    </row>
+    <row r="165" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>21</v>
       </c>
@@ -13067,8 +13581,9 @@
       <c r="I165" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J165" s="5"/>
+    </row>
+    <row r="166" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>23</v>
       </c>
@@ -13090,11 +13605,13 @@
       <c r="I166" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J166" s="5" t="s">
+      <c r="J166" s="5"/>
+      <c r="K166" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L166" s="5"/>
+    </row>
+    <row r="167" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>24</v>
       </c>
@@ -13116,8 +13633,9 @@
       <c r="I167" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J167" s="5"/>
+    </row>
+    <row r="168" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>21</v>
       </c>
@@ -13139,8 +13657,9 @@
       <c r="I168" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J168" s="5"/>
+    </row>
+    <row r="169" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>23</v>
       </c>
@@ -13162,8 +13681,9 @@
       <c r="I169" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J169" s="5"/>
+    </row>
+    <row r="170" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>24</v>
       </c>
@@ -13185,8 +13705,9 @@
       <c r="I170" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J170" s="5"/>
+    </row>
+    <row r="171" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>21</v>
       </c>
@@ -13208,8 +13729,9 @@
       <c r="I171" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J171" s="5"/>
+    </row>
+    <row r="172" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>23</v>
       </c>
@@ -13231,11 +13753,13 @@
       <c r="I172" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J172" s="5" t="s">
+      <c r="J172" s="5"/>
+      <c r="K172" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L172" s="5"/>
+    </row>
+    <row r="173" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>24</v>
       </c>
@@ -13257,8 +13781,9 @@
       <c r="I173" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J173" s="5"/>
+    </row>
+    <row r="174" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>21</v>
       </c>
@@ -13280,8 +13805,9 @@
       <c r="I174" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J174" s="5"/>
+    </row>
+    <row r="175" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>23</v>
       </c>
@@ -13303,11 +13829,13 @@
       <c r="I175" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J175" s="5" t="s">
+      <c r="J175" s="5"/>
+      <c r="K175" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L175" s="5"/>
+    </row>
+    <row r="176" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>24</v>
       </c>
@@ -13329,8 +13857,9 @@
       <c r="I176" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J176" s="5"/>
+    </row>
+    <row r="177" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>21</v>
       </c>
@@ -13352,11 +13881,13 @@
       <c r="I177" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J177" s="8" t="s">
+      <c r="J177" s="5"/>
+      <c r="K177" s="8" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L177" s="8"/>
+    </row>
+    <row r="178" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>23</v>
       </c>
@@ -13378,8 +13909,9 @@
       <c r="I178" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J178" s="5"/>
+    </row>
+    <row r="179" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>24</v>
       </c>
@@ -13401,8 +13933,9 @@
       <c r="I179" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J179" s="5"/>
+    </row>
+    <row r="180" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>21</v>
       </c>
@@ -13424,8 +13957,9 @@
       <c r="I180" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J180" s="5"/>
+    </row>
+    <row r="181" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>23</v>
       </c>
@@ -13447,11 +13981,13 @@
       <c r="I181" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J181" s="5" t="s">
+      <c r="J181" s="5"/>
+      <c r="K181" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L181" s="5"/>
+    </row>
+    <row r="182" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
         <v>24</v>
       </c>
@@ -13473,8 +14009,9 @@
       <c r="I182" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J182" s="5"/>
+    </row>
+    <row r="183" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>21</v>
       </c>
@@ -13496,8 +14033,9 @@
       <c r="I183" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="184" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J183" s="5"/>
+    </row>
+    <row r="184" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
         <v>23</v>
       </c>
@@ -13519,11 +14057,13 @@
       <c r="I184" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J184" s="5" t="s">
+      <c r="J184" s="5"/>
+      <c r="K184" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L184" s="5"/>
+    </row>
+    <row r="185" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
         <v>24</v>
       </c>
@@ -13545,8 +14085,9 @@
       <c r="I185" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J185" s="5"/>
+    </row>
+    <row r="186" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
         <v>21</v>
       </c>
@@ -13568,8 +14109,9 @@
       <c r="I186" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J186" s="5"/>
+    </row>
+    <row r="187" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
         <v>23</v>
       </c>
@@ -13591,8 +14133,9 @@
       <c r="I187" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J187" s="5"/>
+    </row>
+    <row r="188" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
         <v>24</v>
       </c>
@@ -13614,8 +14157,9 @@
       <c r="I188" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J188" s="5"/>
+    </row>
+    <row r="189" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
         <v>21</v>
       </c>
@@ -13637,8 +14181,9 @@
       <c r="I189" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="190" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J189" s="5"/>
+    </row>
+    <row r="190" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>23</v>
       </c>
@@ -13660,11 +14205,13 @@
       <c r="I190" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J190" s="5" t="s">
+      <c r="J190" s="5"/>
+      <c r="K190" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L190" s="5"/>
+    </row>
+    <row r="191" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>24</v>
       </c>
@@ -13686,8 +14233,9 @@
       <c r="I191" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J191" s="5"/>
+    </row>
+    <row r="192" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>21</v>
       </c>
@@ -13709,8 +14257,9 @@
       <c r="I192" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J192" s="5"/>
+    </row>
+    <row r="193" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>23</v>
       </c>
@@ -13732,11 +14281,13 @@
       <c r="I193" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J193" s="5" t="s">
+      <c r="J193" s="5"/>
+      <c r="K193" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L193" s="5"/>
+    </row>
+    <row r="194" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>24</v>
       </c>
@@ -13758,8 +14309,9 @@
       <c r="I194" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J194" s="5"/>
+    </row>
+    <row r="195" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>21</v>
       </c>
@@ -13781,8 +14333,9 @@
       <c r="I195" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J195" s="5"/>
+    </row>
+    <row r="196" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>23</v>
       </c>
@@ -13804,8 +14357,9 @@
       <c r="I196" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J196" s="5"/>
+    </row>
+    <row r="197" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>24</v>
       </c>
@@ -13827,8 +14381,9 @@
       <c r="I197" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J197" s="5"/>
+    </row>
+    <row r="198" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>21</v>
       </c>
@@ -13850,8 +14405,9 @@
       <c r="I198" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J198" s="5"/>
+    </row>
+    <row r="199" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>23</v>
       </c>
@@ -13873,11 +14429,13 @@
       <c r="I199" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J199" s="5" t="s">
+      <c r="J199" s="5"/>
+      <c r="K199" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="200" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L199" s="5"/>
+    </row>
+    <row r="200" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
         <v>24</v>
       </c>
@@ -13899,8 +14457,9 @@
       <c r="I200" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="201" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J200" s="5"/>
+    </row>
+    <row r="201" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>21</v>
       </c>
@@ -13922,8 +14481,9 @@
       <c r="I201" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="202" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J201" s="5"/>
+    </row>
+    <row r="202" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
         <v>23</v>
       </c>
@@ -13945,11 +14505,13 @@
       <c r="I202" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J202" s="5" t="s">
+      <c r="J202" s="5"/>
+      <c r="K202" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="203" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L202" s="5"/>
+    </row>
+    <row r="203" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
         <v>24</v>
       </c>
@@ -13971,8 +14533,9 @@
       <c r="I203" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J203" s="5"/>
+    </row>
+    <row r="204" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
         <v>21</v>
       </c>
@@ -13994,8 +14557,9 @@
       <c r="I204" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="205" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J204" s="5"/>
+    </row>
+    <row r="205" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
         <v>23</v>
       </c>
@@ -14017,8 +14581,9 @@
       <c r="I205" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="206" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J205" s="5"/>
+    </row>
+    <row r="206" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
         <v>24</v>
       </c>
@@ -14040,8 +14605,9 @@
       <c r="I206" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="207" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J206" s="5"/>
+    </row>
+    <row r="207" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
         <v>21</v>
       </c>
@@ -14063,8 +14629,9 @@
       <c r="I207" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J207" s="5"/>
+    </row>
+    <row r="208" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
         <v>23</v>
       </c>
@@ -14086,11 +14653,13 @@
       <c r="I208" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J208" s="5" t="s">
+      <c r="J208" s="5"/>
+      <c r="K208" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="209" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L208" s="5"/>
+    </row>
+    <row r="209" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
         <v>24</v>
       </c>
@@ -14112,8 +14681,9 @@
       <c r="I209" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="210" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J209" s="5"/>
+    </row>
+    <row r="210" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
         <v>21</v>
       </c>
@@ -14135,8 +14705,9 @@
       <c r="I210" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J210" s="5"/>
+    </row>
+    <row r="211" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
         <v>23</v>
       </c>
@@ -14158,11 +14729,13 @@
       <c r="I211" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J211" s="5" t="s">
+      <c r="J211" s="5"/>
+      <c r="K211" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="212" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L211" s="5"/>
+    </row>
+    <row r="212" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
         <v>24</v>
       </c>
@@ -14184,8 +14757,9 @@
       <c r="I212" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J212" s="5"/>
+    </row>
+    <row r="213" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
         <v>21</v>
       </c>
@@ -14207,8 +14781,9 @@
       <c r="I213" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J213" s="5"/>
+    </row>
+    <row r="214" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
         <v>23</v>
       </c>
@@ -14230,8 +14805,9 @@
       <c r="I214" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="215" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J214" s="5"/>
+    </row>
+    <row r="215" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
         <v>24</v>
       </c>
@@ -14253,8 +14829,9 @@
       <c r="I215" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J215" s="5"/>
+    </row>
+    <row r="216" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
         <v>21</v>
       </c>
@@ -14276,8 +14853,9 @@
       <c r="I216" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="217" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J216" s="5"/>
+    </row>
+    <row r="217" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
         <v>23</v>
       </c>
@@ -14299,11 +14877,13 @@
       <c r="I217" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J217" s="5" t="s">
+      <c r="J217" s="5"/>
+      <c r="K217" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="218" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L217" s="5"/>
+    </row>
+    <row r="218" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
         <v>24</v>
       </c>
@@ -14325,8 +14905,9 @@
       <c r="I218" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J218" s="5"/>
+    </row>
+    <row r="219" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
         <v>21</v>
       </c>
@@ -14348,8 +14929,9 @@
       <c r="I219" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J219" s="5"/>
+    </row>
+    <row r="220" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
         <v>23</v>
       </c>
@@ -14371,11 +14953,13 @@
       <c r="I220" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J220" s="5" t="s">
+      <c r="J220" s="5"/>
+      <c r="K220" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L220" s="5"/>
+    </row>
+    <row r="221" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
         <v>24</v>
       </c>
@@ -14397,8 +14981,9 @@
       <c r="I221" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="222" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J221" s="5"/>
+    </row>
+    <row r="222" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
         <v>21</v>
       </c>
@@ -14420,8 +15005,9 @@
       <c r="I222" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J222" s="5"/>
+    </row>
+    <row r="223" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
         <v>23</v>
       </c>
@@ -14443,11 +15029,13 @@
       <c r="I223" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J223" s="5" t="s">
+      <c r="J223" s="5"/>
+      <c r="K223" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L223" s="5"/>
+    </row>
+    <row r="224" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
         <v>24</v>
       </c>
@@ -14469,6 +15057,7 @@
       <c r="I224" s="5" t="s">
         <v>129</v>
       </c>
+      <c r="J224" s="5"/>
     </row>
     <row r="225" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D225" s="7"/>

--- a/data/T31R11_data.xlsx
+++ b/data/T31R11_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kara Fox\Documents\Kara GLO\RStudio\GLO_sage\Sage_GLO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFC173D-4162-44C9-9050-CFD2764D655C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54F9596-5460-4C2A-8EFD-2D0BF0DBB52D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-5295" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1940Survey" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4142" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4423" uniqueCount="202">
   <si>
     <t>Survey_type</t>
   </si>
@@ -715,6 +715,9 @@
   <si>
     <t>31-11-1881</t>
   </si>
+  <si>
+    <t>WWB</t>
+  </si>
 </sst>
 </file>
 
@@ -1039,8 +1042,8 @@
   </sheetPr>
   <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A258" sqref="A258:XFD280"/>
+    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="G289" sqref="G289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1150,7 +1153,9 @@
       <c r="I2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="5"/>
+      <c r="J2" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L2" s="5" t="s">
         <v>167</v>
       </c>
@@ -1177,7 +1182,9 @@
       <c r="I3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="5"/>
+      <c r="J3" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="K3" s="5" t="s">
         <v>60</v>
       </c>
@@ -1210,7 +1217,9 @@
       <c r="I4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="5"/>
+      <c r="J4" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L4" s="5" t="s">
         <v>167</v>
       </c>
@@ -1240,7 +1249,9 @@
       <c r="I5" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="J5" s="5"/>
+      <c r="J5" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="K5" t="s">
         <v>139</v>
       </c>
@@ -1273,7 +1284,9 @@
       <c r="I6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="5"/>
+      <c r="J6" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L6" s="5" t="s">
         <v>167</v>
       </c>
@@ -1300,7 +1313,9 @@
       <c r="I7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="5"/>
+      <c r="J7" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="K7" s="5" t="s">
         <v>76</v>
       </c>
@@ -1330,7 +1345,9 @@
       <c r="I8" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="J8" s="5"/>
+      <c r="J8" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="K8" s="5" t="s">
         <v>78</v>
       </c>
@@ -1363,7 +1380,9 @@
       <c r="I9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="5"/>
+      <c r="J9" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="K9" s="5" t="s">
         <v>79</v>
       </c>
@@ -1393,7 +1412,9 @@
       <c r="I10" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="5"/>
+      <c r="J10" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L10" s="5" t="s">
         <v>167</v>
       </c>
@@ -1420,7 +1441,9 @@
       <c r="I11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="5"/>
+      <c r="J11" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L11" s="5" t="s">
         <v>167</v>
       </c>
@@ -1451,7 +1474,9 @@
       <c r="I12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="5"/>
+      <c r="J12" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L12" s="5" t="s">
         <v>167</v>
       </c>
@@ -1481,7 +1506,9 @@
       <c r="I13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="5"/>
+      <c r="J13" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L13" s="5" t="s">
         <v>167</v>
       </c>
@@ -1508,7 +1535,9 @@
       <c r="I14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="5"/>
+      <c r="J14" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L14" s="5" t="s">
         <v>167</v>
       </c>
@@ -1535,7 +1564,9 @@
       <c r="I15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="5"/>
+      <c r="J15" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L15" s="5" t="s">
         <v>167</v>
       </c>
@@ -1562,7 +1593,9 @@
       <c r="I16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="5"/>
+      <c r="J16" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L16" s="5" t="s">
         <v>167</v>
       </c>
@@ -1592,7 +1625,9 @@
       <c r="I17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J17" s="5"/>
+      <c r="J17" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L17" s="5" t="s">
         <v>167</v>
       </c>
@@ -1619,7 +1654,9 @@
       <c r="I18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J18" s="5"/>
+      <c r="J18" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L18" s="5" t="s">
         <v>167</v>
       </c>
@@ -1646,7 +1683,9 @@
       <c r="I19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="5"/>
+      <c r="J19" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L19" s="5" t="s">
         <v>167</v>
       </c>
@@ -1677,7 +1716,9 @@
       <c r="I20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="5"/>
+      <c r="J20" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L20" s="5" t="s">
         <v>167</v>
       </c>
@@ -1707,7 +1748,9 @@
       <c r="I21" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J21" s="5"/>
+      <c r="J21" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L21" s="5" t="s">
         <v>167</v>
       </c>
@@ -1734,7 +1777,9 @@
       <c r="I22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J22" s="5"/>
+      <c r="J22" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L22" s="5" t="s">
         <v>167</v>
       </c>
@@ -1761,7 +1806,9 @@
       <c r="I23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J23" s="5"/>
+      <c r="J23" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L23" s="5" t="s">
         <v>167</v>
       </c>
@@ -1788,7 +1835,9 @@
       <c r="I24" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J24" s="5"/>
+      <c r="J24" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L24" s="5" t="s">
         <v>167</v>
       </c>
@@ -1818,7 +1867,9 @@
       <c r="I25" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J25" s="5"/>
+      <c r="J25" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L25" s="5" t="s">
         <v>167</v>
       </c>
@@ -1845,7 +1896,9 @@
       <c r="I26" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J26" s="5"/>
+      <c r="J26" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L26" s="5" t="s">
         <v>167</v>
       </c>
@@ -1872,7 +1925,9 @@
       <c r="I27" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J27" s="5"/>
+      <c r="J27" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L27" s="5" t="s">
         <v>167</v>
       </c>
@@ -1903,7 +1958,9 @@
       <c r="I28" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J28" s="5"/>
+      <c r="J28" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L28" s="5" t="s">
         <v>167</v>
       </c>
@@ -1933,7 +1990,9 @@
       <c r="I29" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J29" s="5"/>
+      <c r="J29" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L29" s="5" t="s">
         <v>167</v>
       </c>
@@ -1960,7 +2019,9 @@
       <c r="I30" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J30" s="5"/>
+      <c r="J30" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L30" s="5" t="s">
         <v>167</v>
       </c>
@@ -1987,7 +2048,9 @@
       <c r="I31" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J31" s="5"/>
+      <c r="J31" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L31" s="5" t="s">
         <v>167</v>
       </c>
@@ -2014,7 +2077,9 @@
       <c r="I32" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J32" s="5"/>
+      <c r="J32" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L32" s="5" t="s">
         <v>167</v>
       </c>
@@ -2044,7 +2109,9 @@
       <c r="I33" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J33" s="5"/>
+      <c r="J33" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L33" s="5" t="s">
         <v>167</v>
       </c>
@@ -2071,7 +2138,9 @@
       <c r="I34" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J34" s="5"/>
+      <c r="J34" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L34" s="5" t="s">
         <v>167</v>
       </c>
@@ -2098,7 +2167,9 @@
       <c r="I35" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J35" s="5"/>
+      <c r="J35" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L35" s="5" t="s">
         <v>167</v>
       </c>
@@ -2129,7 +2200,9 @@
       <c r="I36" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J36" s="5"/>
+      <c r="J36" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L36" s="5" t="s">
         <v>167</v>
       </c>
@@ -2159,7 +2232,9 @@
       <c r="I37" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J37" s="5"/>
+      <c r="J37" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L37" s="5" t="s">
         <v>167</v>
       </c>
@@ -2186,7 +2261,9 @@
       <c r="I38" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J38" s="5"/>
+      <c r="J38" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L38" s="5" t="s">
         <v>167</v>
       </c>
@@ -2213,7 +2290,9 @@
       <c r="I39" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J39" s="5"/>
+      <c r="J39" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L39" s="5" t="s">
         <v>167</v>
       </c>
@@ -2240,7 +2319,9 @@
       <c r="I40" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J40" s="5"/>
+      <c r="J40" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L40" s="5" t="s">
         <v>167</v>
       </c>
@@ -2270,7 +2351,9 @@
       <c r="I41" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J41" s="5"/>
+      <c r="J41" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L41" s="5" t="s">
         <v>167</v>
       </c>
@@ -2297,7 +2380,9 @@
       <c r="I42" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J42" s="5"/>
+      <c r="J42" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L42" s="5" t="s">
         <v>167</v>
       </c>
@@ -2324,7 +2409,9 @@
       <c r="I43" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J43" s="5"/>
+      <c r="J43" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L43" s="5" t="s">
         <v>167</v>
       </c>
@@ -2351,7 +2438,9 @@
       <c r="I44" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J44" s="5"/>
+      <c r="J44" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L44" s="5" t="s">
         <v>167</v>
       </c>
@@ -2381,7 +2470,9 @@
       <c r="I45" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J45" s="5"/>
+      <c r="J45" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L45" s="5" t="s">
         <v>167</v>
       </c>
@@ -2408,7 +2499,9 @@
       <c r="I46" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J46" s="5"/>
+      <c r="J46" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L46" s="5" t="s">
         <v>167</v>
       </c>
@@ -2435,7 +2528,9 @@
       <c r="I47" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J47" s="5"/>
+      <c r="J47" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L47" s="5" t="s">
         <v>167</v>
       </c>
@@ -2462,7 +2557,9 @@
       <c r="I48" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J48" s="5"/>
+      <c r="J48" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L48" s="5" t="s">
         <v>167</v>
       </c>
@@ -2492,7 +2589,9 @@
       <c r="I49" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J49" s="5"/>
+      <c r="J49" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L49" s="5" t="s">
         <v>167</v>
       </c>
@@ -2519,7 +2618,9 @@
       <c r="I50" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J50" s="5"/>
+      <c r="J50" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L50" s="5" t="s">
         <v>167</v>
       </c>
@@ -2546,7 +2647,9 @@
       <c r="I51" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J51" s="5"/>
+      <c r="J51" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L51" s="5" t="s">
         <v>167</v>
       </c>
@@ -2577,7 +2680,9 @@
       <c r="I52" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J52" s="5"/>
+      <c r="J52" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L52" s="5" t="s">
         <v>167</v>
       </c>
@@ -2607,7 +2712,9 @@
       <c r="I53" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J53" s="5"/>
+      <c r="J53" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L53" s="5" t="s">
         <v>167</v>
       </c>
@@ -2634,7 +2741,9 @@
       <c r="I54" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J54" s="5"/>
+      <c r="J54" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L54" s="5" t="s">
         <v>167</v>
       </c>
@@ -2661,7 +2770,9 @@
       <c r="I55" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J55" s="5"/>
+      <c r="J55" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L55" s="5" t="s">
         <v>167</v>
       </c>
@@ -2688,7 +2799,9 @@
       <c r="I56" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J56" s="5"/>
+      <c r="J56" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L56" s="5" t="s">
         <v>167</v>
       </c>
@@ -2718,7 +2831,9 @@
       <c r="I57" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J57" s="5"/>
+      <c r="J57" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L57" s="5" t="s">
         <v>167</v>
       </c>
@@ -2745,7 +2860,9 @@
       <c r="I58" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J58" s="5"/>
+      <c r="J58" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L58" s="5" t="s">
         <v>167</v>
       </c>
@@ -2772,7 +2889,9 @@
       <c r="I59" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J59" s="5"/>
+      <c r="J59" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L59" s="5" t="s">
         <v>167</v>
       </c>
@@ -2803,7 +2922,9 @@
       <c r="I60" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J60" s="5"/>
+      <c r="J60" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L60" s="5" t="s">
         <v>167</v>
       </c>
@@ -2833,7 +2954,9 @@
       <c r="I61" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J61" s="5"/>
+      <c r="J61" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L61" s="5" t="s">
         <v>167</v>
       </c>
@@ -2860,7 +2983,9 @@
       <c r="I62" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J62" s="5"/>
+      <c r="J62" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L62" s="5" t="s">
         <v>167</v>
       </c>
@@ -2887,7 +3012,9 @@
       <c r="I63" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J63" s="5"/>
+      <c r="J63" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L63" s="5" t="s">
         <v>167</v>
       </c>
@@ -2914,7 +3041,9 @@
       <c r="I64" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J64" s="5"/>
+      <c r="J64" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L64" s="5" t="s">
         <v>167</v>
       </c>
@@ -2944,7 +3073,9 @@
       <c r="I65" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J65" s="5"/>
+      <c r="J65" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L65" s="5" t="s">
         <v>167</v>
       </c>
@@ -2971,7 +3102,9 @@
       <c r="I66" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J66" s="5"/>
+      <c r="J66" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L66" s="5" t="s">
         <v>167</v>
       </c>
@@ -2998,7 +3131,9 @@
       <c r="I67" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J67" s="5"/>
+      <c r="J67" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L67" s="5" t="s">
         <v>167</v>
       </c>
@@ -3025,7 +3160,9 @@
       <c r="I68" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J68" s="5"/>
+      <c r="J68" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L68" s="5" t="s">
         <v>167</v>
       </c>
@@ -3055,7 +3192,9 @@
       <c r="I69" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J69" s="5"/>
+      <c r="J69" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L69" s="5" t="s">
         <v>167</v>
       </c>
@@ -3077,6 +3216,9 @@
       <c r="G70" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="J70" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="K70" t="s">
         <v>139</v>
       </c>
@@ -3109,7 +3251,9 @@
       <c r="I71" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="J71" s="5"/>
+      <c r="J71" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="K71" t="s">
         <v>139</v>
       </c>
@@ -3142,7 +3286,9 @@
       <c r="I72" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J72" s="5"/>
+      <c r="J72" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="K72" t="s">
         <v>139</v>
       </c>
@@ -3178,7 +3324,9 @@
       <c r="I73" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="J73" s="5"/>
+      <c r="J73" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="K73" t="s">
         <v>139</v>
       </c>
@@ -3211,7 +3359,9 @@
       <c r="I74" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J74" s="5"/>
+      <c r="J74" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L74" s="5" t="s">
         <v>167</v>
       </c>
@@ -3238,7 +3388,9 @@
       <c r="I75" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="J75" s="5"/>
+      <c r="J75" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L75" s="5" t="s">
         <v>167</v>
       </c>
@@ -3265,7 +3417,9 @@
       <c r="I76" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J76" s="5"/>
+      <c r="J76" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L76" s="5" t="s">
         <v>167</v>
       </c>
@@ -3292,7 +3446,9 @@
       <c r="I77" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J77" s="5"/>
+      <c r="J77" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L77" s="5" t="s">
         <v>167</v>
       </c>
@@ -3322,7 +3478,9 @@
       <c r="I78" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J78" s="5"/>
+      <c r="J78" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L78" s="5" t="s">
         <v>167</v>
       </c>
@@ -3349,7 +3507,9 @@
       <c r="I79" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J79" s="5"/>
+      <c r="J79" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L79" s="5" t="s">
         <v>167</v>
       </c>
@@ -3376,7 +3536,9 @@
       <c r="I80" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="J80" s="5"/>
+      <c r="J80" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L80" s="5" t="s">
         <v>167</v>
       </c>
@@ -3407,7 +3569,9 @@
       <c r="I81" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="J81" s="5"/>
+      <c r="J81" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L81" s="5" t="s">
         <v>167</v>
       </c>
@@ -3437,7 +3601,9 @@
       <c r="I82" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J82" s="5"/>
+      <c r="J82" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L82" s="5" t="s">
         <v>167</v>
       </c>
@@ -3464,7 +3630,9 @@
       <c r="I83" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J83" s="5"/>
+      <c r="J83" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L83" s="5" t="s">
         <v>167</v>
       </c>
@@ -3491,7 +3659,9 @@
       <c r="I84" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J84" s="5"/>
+      <c r="J84" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L84" s="5" t="s">
         <v>167</v>
       </c>
@@ -3518,7 +3688,9 @@
       <c r="I85" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J85" s="5"/>
+      <c r="J85" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L85" s="5" t="s">
         <v>167</v>
       </c>
@@ -3545,7 +3717,9 @@
       <c r="I86" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J86" s="5"/>
+      <c r="J86" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="K86" s="5" t="s">
         <v>57</v>
       </c>
@@ -3578,7 +3752,9 @@
       <c r="I87" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J87" s="5"/>
+      <c r="J87" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L87" s="5" t="s">
         <v>167</v>
       </c>
@@ -3605,7 +3781,9 @@
       <c r="I88" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J88" s="5"/>
+      <c r="J88" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L88" s="5" t="s">
         <v>167</v>
       </c>
@@ -3632,7 +3810,9 @@
       <c r="I89" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J89" s="5"/>
+      <c r="J89" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L89" s="5" t="s">
         <v>167</v>
       </c>
@@ -3663,7 +3843,9 @@
       <c r="I90" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J90" s="5"/>
+      <c r="J90" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="K90" s="5" t="s">
         <v>59</v>
       </c>
@@ -3693,7 +3875,9 @@
       <c r="I91" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J91" s="5"/>
+      <c r="J91" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L91" s="5" t="s">
         <v>167</v>
       </c>
@@ -3720,7 +3904,9 @@
       <c r="I92" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J92" s="5"/>
+      <c r="J92" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L92" s="5" t="s">
         <v>167</v>
       </c>
@@ -3747,7 +3933,9 @@
       <c r="I93" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J93" s="5"/>
+      <c r="J93" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L93" s="5" t="s">
         <v>167</v>
       </c>
@@ -3774,7 +3962,9 @@
       <c r="I94" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J94" s="5"/>
+      <c r="J94" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L94" s="5" t="s">
         <v>167</v>
       </c>
@@ -3801,7 +3991,9 @@
       <c r="I95" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J95" s="5"/>
+      <c r="J95" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L95" s="5" t="s">
         <v>167</v>
       </c>
@@ -3828,7 +4020,9 @@
       <c r="I96" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J96" s="5"/>
+      <c r="J96" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L96" s="5" t="s">
         <v>167</v>
       </c>
@@ -3858,7 +4052,9 @@
       <c r="I97" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J97" s="5"/>
+      <c r="J97" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L97" s="5" t="s">
         <v>167</v>
       </c>
@@ -3885,7 +4081,9 @@
       <c r="I98" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J98" s="5"/>
+      <c r="J98" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L98" s="5" t="s">
         <v>167</v>
       </c>
@@ -3912,7 +4110,9 @@
       <c r="I99" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J99" s="5"/>
+      <c r="J99" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L99" s="5" t="s">
         <v>167</v>
       </c>
@@ -3939,7 +4139,9 @@
       <c r="I100" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J100" s="5"/>
+      <c r="J100" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L100" s="5" t="s">
         <v>167</v>
       </c>
@@ -3966,7 +4168,9 @@
       <c r="I101" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J101" s="5"/>
+      <c r="J101" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L101" s="5" t="s">
         <v>167</v>
       </c>
@@ -3993,7 +4197,9 @@
       <c r="I102" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J102" s="5"/>
+      <c r="J102" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L102" s="5" t="s">
         <v>167</v>
       </c>
@@ -4020,7 +4226,9 @@
       <c r="I103" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J103" s="5"/>
+      <c r="J103" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L103" s="5" t="s">
         <v>167</v>
       </c>
@@ -4050,7 +4258,9 @@
       <c r="I104" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J104" s="5"/>
+      <c r="J104" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L104" s="5" t="s">
         <v>167</v>
       </c>
@@ -4077,7 +4287,9 @@
       <c r="I105" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J105" s="5"/>
+      <c r="J105" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L105" s="5" t="s">
         <v>167</v>
       </c>
@@ -4104,7 +4316,9 @@
       <c r="I106" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J106" s="5"/>
+      <c r="J106" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L106" s="5" t="s">
         <v>167</v>
       </c>
@@ -4131,7 +4345,9 @@
       <c r="I107" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J107" s="5"/>
+      <c r="J107" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L107" s="5" t="s">
         <v>167</v>
       </c>
@@ -4158,7 +4374,9 @@
       <c r="I108" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J108" s="5"/>
+      <c r="J108" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L108" s="5" t="s">
         <v>167</v>
       </c>
@@ -4188,7 +4406,9 @@
       <c r="I109" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J109" s="5"/>
+      <c r="J109" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L109" s="5" t="s">
         <v>167</v>
       </c>
@@ -4215,7 +4435,9 @@
       <c r="I110" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J110" s="5"/>
+      <c r="J110" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L110" s="5" t="s">
         <v>167</v>
       </c>
@@ -4242,7 +4464,9 @@
       <c r="I111" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J111" s="5"/>
+      <c r="J111" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L111" s="5" t="s">
         <v>167</v>
       </c>
@@ -4269,7 +4493,9 @@
       <c r="I112" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J112" s="5"/>
+      <c r="J112" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L112" s="5" t="s">
         <v>167</v>
       </c>
@@ -4299,7 +4525,9 @@
       <c r="I113" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J113" s="5"/>
+      <c r="J113" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L113" s="5" t="s">
         <v>167</v>
       </c>
@@ -4326,7 +4554,9 @@
       <c r="I114" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J114" s="5"/>
+      <c r="J114" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L114" s="5" t="s">
         <v>167</v>
       </c>
@@ -4353,7 +4583,9 @@
       <c r="I115" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J115" s="5"/>
+      <c r="J115" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L115" s="5" t="s">
         <v>167</v>
       </c>
@@ -4380,7 +4612,9 @@
       <c r="I116" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J116" s="5"/>
+      <c r="J116" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L116" s="5" t="s">
         <v>167</v>
       </c>
@@ -4410,7 +4644,9 @@
       <c r="I117" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J117" s="5"/>
+      <c r="J117" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L117" s="5" t="s">
         <v>167</v>
       </c>
@@ -4437,7 +4673,9 @@
       <c r="I118" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J118" s="5"/>
+      <c r="J118" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L118" s="5" t="s">
         <v>167</v>
       </c>
@@ -4464,7 +4702,9 @@
       <c r="I119" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J119" s="5"/>
+      <c r="J119" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L119" s="5" t="s">
         <v>167</v>
       </c>
@@ -4495,7 +4735,9 @@
       <c r="I120" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J120" s="5"/>
+      <c r="J120" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L120" s="5" t="s">
         <v>167</v>
       </c>
@@ -4525,7 +4767,9 @@
       <c r="I121" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J121" s="5"/>
+      <c r="J121" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L121" s="5" t="s">
         <v>167</v>
       </c>
@@ -4552,7 +4796,9 @@
       <c r="I122" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J122" s="5"/>
+      <c r="J122" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L122" s="5" t="s">
         <v>167</v>
       </c>
@@ -4579,7 +4825,9 @@
       <c r="I123" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J123" s="5"/>
+      <c r="J123" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L123" s="5" t="s">
         <v>167</v>
       </c>
@@ -4606,7 +4854,9 @@
       <c r="I124" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J124" s="5"/>
+      <c r="J124" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L124" s="5" t="s">
         <v>167</v>
       </c>
@@ -4636,7 +4886,9 @@
       <c r="I125" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J125" s="5"/>
+      <c r="J125" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L125" s="5" t="s">
         <v>167</v>
       </c>
@@ -4663,7 +4915,9 @@
       <c r="I126" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J126" s="5"/>
+      <c r="J126" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L126" s="5" t="s">
         <v>167</v>
       </c>
@@ -4690,7 +4944,9 @@
       <c r="I127" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J127" s="5"/>
+      <c r="J127" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L127" s="5" t="s">
         <v>167</v>
       </c>
@@ -4721,7 +4977,9 @@
       <c r="I128" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J128" s="5"/>
+      <c r="J128" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L128" s="5" t="s">
         <v>167</v>
       </c>
@@ -4751,7 +5009,9 @@
       <c r="I129" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J129" s="5"/>
+      <c r="J129" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L129" s="5" t="s">
         <v>167</v>
       </c>
@@ -4778,7 +5038,9 @@
       <c r="I130" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J130" s="5"/>
+      <c r="J130" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L130" s="5" t="s">
         <v>167</v>
       </c>
@@ -4805,7 +5067,9 @@
       <c r="I131" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J131" s="5"/>
+      <c r="J131" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L131" s="5" t="s">
         <v>167</v>
       </c>
@@ -4832,7 +5096,9 @@
       <c r="I132" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J132" s="5"/>
+      <c r="J132" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L132" s="5" t="s">
         <v>167</v>
       </c>
@@ -4862,7 +5128,9 @@
       <c r="I133" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J133" s="5"/>
+      <c r="J133" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L133" s="5" t="s">
         <v>167</v>
       </c>
@@ -4889,7 +5157,9 @@
       <c r="I134" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J134" s="5"/>
+      <c r="J134" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L134" s="5" t="s">
         <v>167</v>
       </c>
@@ -4916,7 +5186,9 @@
       <c r="I135" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J135" s="5"/>
+      <c r="J135" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L135" s="5" t="s">
         <v>167</v>
       </c>
@@ -4947,7 +5219,9 @@
       <c r="I136" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J136" s="5"/>
+      <c r="J136" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L136" s="5" t="s">
         <v>167</v>
       </c>
@@ -4977,7 +5251,9 @@
       <c r="I137" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J137" s="5"/>
+      <c r="J137" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L137" s="5" t="s">
         <v>167</v>
       </c>
@@ -5004,7 +5280,9 @@
       <c r="I138" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J138" s="5"/>
+      <c r="J138" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L138" s="5" t="s">
         <v>167</v>
       </c>
@@ -5031,7 +5309,9 @@
       <c r="I139" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J139" s="5"/>
+      <c r="J139" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L139" s="5" t="s">
         <v>167</v>
       </c>
@@ -5058,7 +5338,9 @@
       <c r="I140" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J140" s="5"/>
+      <c r="J140" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L140" s="5" t="s">
         <v>167</v>
       </c>
@@ -5088,7 +5370,9 @@
       <c r="I141" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J141" s="5"/>
+      <c r="J141" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L141" s="5" t="s">
         <v>167</v>
       </c>
@@ -5115,7 +5399,9 @@
       <c r="I142" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J142" s="5"/>
+      <c r="J142" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L142" s="5" t="s">
         <v>167</v>
       </c>
@@ -5142,7 +5428,9 @@
       <c r="I143" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J143" s="5"/>
+      <c r="J143" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L143" s="5" t="s">
         <v>167</v>
       </c>
@@ -5169,7 +5457,9 @@
       <c r="I144" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J144" s="5"/>
+      <c r="J144" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L144" s="5" t="s">
         <v>167</v>
       </c>
@@ -5199,7 +5489,9 @@
       <c r="I145" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J145" s="5"/>
+      <c r="J145" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L145" s="5" t="s">
         <v>167</v>
       </c>
@@ -5226,7 +5518,9 @@
       <c r="I146" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J146" s="5"/>
+      <c r="J146" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L146" s="5" t="s">
         <v>167</v>
       </c>
@@ -5253,7 +5547,9 @@
       <c r="I147" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J147" s="5"/>
+      <c r="J147" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L147" s="5" t="s">
         <v>167</v>
       </c>
@@ -5280,7 +5576,9 @@
       <c r="I148" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J148" s="5"/>
+      <c r="J148" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L148" s="5" t="s">
         <v>167</v>
       </c>
@@ -5310,7 +5608,9 @@
       <c r="I149" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J149" s="5"/>
+      <c r="J149" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L149" s="5" t="s">
         <v>167</v>
       </c>
@@ -5337,7 +5637,9 @@
       <c r="I150" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="J150" s="5"/>
+      <c r="J150" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L150" s="5" t="s">
         <v>167</v>
       </c>
@@ -5364,7 +5666,9 @@
       <c r="I151" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J151" s="5"/>
+      <c r="J151" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L151" s="5" t="s">
         <v>167</v>
       </c>
@@ -5395,7 +5699,9 @@
       <c r="I152" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J152" s="5"/>
+      <c r="J152" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L152" s="5" t="s">
         <v>167</v>
       </c>
@@ -5425,7 +5731,9 @@
       <c r="I153" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J153" s="5"/>
+      <c r="J153" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L153" s="5" t="s">
         <v>167</v>
       </c>
@@ -5452,7 +5760,9 @@
       <c r="I154" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J154" s="5"/>
+      <c r="J154" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L154" s="5" t="s">
         <v>167</v>
       </c>
@@ -5479,7 +5789,9 @@
       <c r="I155" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J155" s="5"/>
+      <c r="J155" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L155" s="5" t="s">
         <v>167</v>
       </c>
@@ -5506,7 +5818,9 @@
       <c r="I156" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J156" s="5"/>
+      <c r="J156" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L156" s="5" t="s">
         <v>167</v>
       </c>
@@ -5536,7 +5850,9 @@
       <c r="I157" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J157" s="5"/>
+      <c r="J157" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L157" s="5" t="s">
         <v>167</v>
       </c>
@@ -5563,7 +5879,9 @@
       <c r="I158" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J158" s="5"/>
+      <c r="J158" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L158" s="5" t="s">
         <v>167</v>
       </c>
@@ -5590,7 +5908,9 @@
       <c r="I159" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J159" s="5"/>
+      <c r="J159" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L159" s="5" t="s">
         <v>167</v>
       </c>
@@ -5621,7 +5941,9 @@
       <c r="I160" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J160" s="5"/>
+      <c r="J160" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L160" s="5" t="s">
         <v>167</v>
       </c>
@@ -5651,7 +5973,9 @@
       <c r="I161" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="J161" s="5"/>
+      <c r="J161" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L161" s="5" t="s">
         <v>167</v>
       </c>
@@ -5678,7 +6002,9 @@
       <c r="I162" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J162" s="5"/>
+      <c r="J162" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L162" s="5" t="s">
         <v>167</v>
       </c>
@@ -5705,7 +6031,9 @@
       <c r="I163" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J163" s="5"/>
+      <c r="J163" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L163" s="5" t="s">
         <v>167</v>
       </c>
@@ -5732,7 +6060,9 @@
       <c r="I164" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J164" s="5"/>
+      <c r="J164" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L164" s="5" t="s">
         <v>167</v>
       </c>
@@ -5762,7 +6092,9 @@
       <c r="I165" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J165" s="5"/>
+      <c r="J165" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L165" s="5" t="s">
         <v>167</v>
       </c>
@@ -5789,7 +6121,9 @@
       <c r="I166" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J166" s="5"/>
+      <c r="J166" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L166" s="5" t="s">
         <v>167</v>
       </c>
@@ -5816,7 +6150,9 @@
       <c r="I167" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J167" s="5"/>
+      <c r="J167" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L167" s="5" t="s">
         <v>167</v>
       </c>
@@ -5847,7 +6183,9 @@
       <c r="I168" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J168" s="5"/>
+      <c r="J168" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L168" s="5" t="s">
         <v>167</v>
       </c>
@@ -5877,7 +6215,9 @@
       <c r="I169" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J169" s="5"/>
+      <c r="J169" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L169" s="5" t="s">
         <v>167</v>
       </c>
@@ -5904,7 +6244,9 @@
       <c r="I170" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J170" s="5"/>
+      <c r="J170" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L170" s="5" t="s">
         <v>167</v>
       </c>
@@ -5931,7 +6273,9 @@
       <c r="I171" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J171" s="5"/>
+      <c r="J171" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L171" s="5" t="s">
         <v>167</v>
       </c>
@@ -5962,7 +6306,9 @@
       <c r="I172" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J172" s="5"/>
+      <c r="J172" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L172" s="5" t="s">
         <v>167</v>
       </c>
@@ -5992,7 +6338,9 @@
       <c r="I173" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J173" s="5"/>
+      <c r="J173" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L173" s="5" t="s">
         <v>167</v>
       </c>
@@ -6019,7 +6367,9 @@
       <c r="I174" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J174" s="5"/>
+      <c r="J174" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="K174" s="8" t="s">
         <v>68</v>
       </c>
@@ -6049,7 +6399,9 @@
       <c r="I175" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J175" s="5"/>
+      <c r="J175" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L175" s="5" t="s">
         <v>167</v>
       </c>
@@ -6080,7 +6432,9 @@
       <c r="I176" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J176" s="5"/>
+      <c r="J176" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L176" s="5" t="s">
         <v>167</v>
       </c>
@@ -6110,7 +6464,9 @@
       <c r="I177" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J177" s="5"/>
+      <c r="J177" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L177" s="5" t="s">
         <v>167</v>
       </c>
@@ -6137,7 +6493,9 @@
       <c r="I178" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J178" s="5"/>
+      <c r="J178" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L178" s="5" t="s">
         <v>167</v>
       </c>
@@ -6164,7 +6522,9 @@
       <c r="I179" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J179" s="5"/>
+      <c r="J179" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L179" s="5" t="s">
         <v>167</v>
       </c>
@@ -6191,7 +6551,9 @@
       <c r="I180" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J180" s="5"/>
+      <c r="J180" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L180" s="5" t="s">
         <v>167</v>
       </c>
@@ -6218,7 +6580,9 @@
       <c r="I181" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J181" s="5"/>
+      <c r="J181" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L181" s="5" t="s">
         <v>167</v>
       </c>
@@ -6245,7 +6609,9 @@
       <c r="I182" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J182" s="5"/>
+      <c r="J182" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L182" s="5" t="s">
         <v>167</v>
       </c>
@@ -6275,7 +6641,9 @@
       <c r="I183" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J183" s="5"/>
+      <c r="J183" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L183" s="5" t="s">
         <v>167</v>
       </c>
@@ -6302,7 +6670,9 @@
       <c r="I184" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J184" s="5"/>
+      <c r="J184" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L184" s="5" t="s">
         <v>167</v>
       </c>
@@ -6329,7 +6699,9 @@
       <c r="I185" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J185" s="5"/>
+      <c r="J185" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L185" s="5" t="s">
         <v>167</v>
       </c>
@@ -6356,7 +6728,9 @@
       <c r="I186" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J186" s="5"/>
+      <c r="J186" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L186" s="5" t="s">
         <v>167</v>
       </c>
@@ -6383,7 +6757,9 @@
       <c r="I187" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J187" s="5"/>
+      <c r="J187" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="K187" s="5" t="s">
         <v>47</v>
       </c>
@@ -6413,7 +6789,9 @@
       <c r="I188" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J188" s="5"/>
+      <c r="J188" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L188" s="5" t="s">
         <v>167</v>
       </c>
@@ -6440,7 +6818,9 @@
       <c r="I189" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J189" s="5"/>
+      <c r="J189" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L189" s="5" t="s">
         <v>167</v>
       </c>
@@ -6470,7 +6850,9 @@
       <c r="I190" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J190" s="5"/>
+      <c r="J190" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L190" s="5" t="s">
         <v>167</v>
       </c>
@@ -6497,7 +6879,9 @@
       <c r="I191" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J191" s="5"/>
+      <c r="J191" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L191" s="5" t="s">
         <v>167</v>
       </c>
@@ -6524,7 +6908,9 @@
       <c r="I192" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J192" s="5"/>
+      <c r="J192" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L192" s="5" t="s">
         <v>167</v>
       </c>
@@ -6555,7 +6941,9 @@
       <c r="I193" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J193" s="5"/>
+      <c r="J193" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L193" s="5" t="s">
         <v>167</v>
       </c>
@@ -6585,7 +6973,9 @@
       <c r="I194" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J194" s="5"/>
+      <c r="J194" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L194" s="5" t="s">
         <v>167</v>
       </c>
@@ -6612,7 +7002,9 @@
       <c r="I195" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J195" s="5"/>
+      <c r="J195" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L195" s="5" t="s">
         <v>167</v>
       </c>
@@ -6639,7 +7031,9 @@
       <c r="I196" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J196" s="5"/>
+      <c r="J196" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L196" s="5" t="s">
         <v>167</v>
       </c>
@@ -6666,7 +7060,9 @@
       <c r="I197" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J197" s="5"/>
+      <c r="J197" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L197" s="5" t="s">
         <v>167</v>
       </c>
@@ -6693,7 +7089,9 @@
       <c r="I198" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J198" s="5"/>
+      <c r="J198" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L198" s="5" t="s">
         <v>167</v>
       </c>
@@ -6724,7 +7122,9 @@
       <c r="I199" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J199" s="5"/>
+      <c r="J199" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L199" s="5" t="s">
         <v>167</v>
       </c>
@@ -6752,7 +7152,9 @@
       <c r="I200" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J200" s="5"/>
+      <c r="J200" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L200" s="5" t="s">
         <v>167</v>
       </c>
@@ -6782,7 +7184,9 @@
       <c r="I201" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J201" s="5"/>
+      <c r="J201" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L201" s="5" t="s">
         <v>167</v>
       </c>
@@ -6809,7 +7213,9 @@
       <c r="I202" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J202" s="5"/>
+      <c r="J202" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L202" s="5" t="s">
         <v>167</v>
       </c>
@@ -6836,7 +7242,9 @@
       <c r="I203" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J203" s="5"/>
+      <c r="J203" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L203" s="5" t="s">
         <v>167</v>
       </c>
@@ -6863,7 +7271,9 @@
       <c r="I204" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J204" s="5"/>
+      <c r="J204" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L204" s="5" t="s">
         <v>167</v>
       </c>
@@ -6893,7 +7303,9 @@
       <c r="I205" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J205" s="5"/>
+      <c r="J205" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L205" s="5" t="s">
         <v>167</v>
       </c>
@@ -6920,7 +7332,9 @@
       <c r="I206" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J206" s="5"/>
+      <c r="J206" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L206" s="5" t="s">
         <v>167</v>
       </c>
@@ -6947,7 +7361,9 @@
       <c r="I207" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J207" s="5"/>
+      <c r="J207" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L207" s="5" t="s">
         <v>167</v>
       </c>
@@ -6978,7 +7394,9 @@
       <c r="I208" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J208" s="5"/>
+      <c r="J208" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L208" s="5" t="s">
         <v>167</v>
       </c>
@@ -7008,7 +7426,9 @@
       <c r="I209" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J209" s="5"/>
+      <c r="J209" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L209" s="5" t="s">
         <v>167</v>
       </c>
@@ -7035,7 +7455,9 @@
       <c r="I210" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J210" s="5"/>
+      <c r="J210" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L210" s="5" t="s">
         <v>167</v>
       </c>
@@ -7062,7 +7484,9 @@
       <c r="I211" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J211" s="5"/>
+      <c r="J211" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L211" s="5" t="s">
         <v>167</v>
       </c>
@@ -7089,7 +7513,9 @@
       <c r="I212" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J212" s="5"/>
+      <c r="J212" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L212" s="5" t="s">
         <v>167</v>
       </c>
@@ -7119,7 +7545,9 @@
       <c r="I213" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="J213" s="5"/>
+      <c r="J213" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L213" s="5" t="s">
         <v>167</v>
       </c>
@@ -7146,7 +7574,9 @@
       <c r="I214" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J214" s="5"/>
+      <c r="J214" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L214" s="5" t="s">
         <v>167</v>
       </c>
@@ -7173,7 +7603,9 @@
       <c r="I215" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J215" s="5"/>
+      <c r="J215" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L215" s="5" t="s">
         <v>167</v>
       </c>
@@ -7204,7 +7636,9 @@
       <c r="I216" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J216" s="5"/>
+      <c r="J216" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L216" s="5" t="s">
         <v>167</v>
       </c>
@@ -7234,7 +7668,9 @@
       <c r="I217" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J217" s="5"/>
+      <c r="J217" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L217" s="5" t="s">
         <v>167</v>
       </c>
@@ -7261,7 +7697,9 @@
       <c r="I218" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J218" s="5"/>
+      <c r="J218" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L218" s="5" t="s">
         <v>167</v>
       </c>
@@ -7288,7 +7726,9 @@
       <c r="I219" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J219" s="5"/>
+      <c r="J219" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L219" s="5" t="s">
         <v>167</v>
       </c>
@@ -7315,7 +7755,9 @@
       <c r="I220" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J220" s="5"/>
+      <c r="J220" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L220" s="5" t="s">
         <v>167</v>
       </c>
@@ -7345,7 +7787,9 @@
       <c r="I221" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J221" s="5"/>
+      <c r="J221" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L221" s="5" t="s">
         <v>167</v>
       </c>
@@ -7372,7 +7816,9 @@
       <c r="I222" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J222" s="5"/>
+      <c r="J222" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L222" s="5" t="s">
         <v>167</v>
       </c>
@@ -7399,7 +7845,9 @@
       <c r="I223" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J223" s="5"/>
+      <c r="J223" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L223" s="5" t="s">
         <v>167</v>
       </c>
@@ -7430,7 +7878,9 @@
       <c r="I224" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J224" s="5"/>
+      <c r="J224" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L224" s="5" t="s">
         <v>167</v>
       </c>
@@ -7457,7 +7907,9 @@
       <c r="I225" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J225" s="5"/>
+      <c r="J225" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L225" s="5" t="s">
         <v>167</v>
       </c>
@@ -7484,7 +7936,9 @@
       <c r="I226" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J226" s="5"/>
+      <c r="J226" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L226" s="5" t="s">
         <v>167</v>
       </c>
@@ -7511,7 +7965,9 @@
       <c r="I227" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J227" s="5"/>
+      <c r="J227" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L227" s="5" t="s">
         <v>167</v>
       </c>
@@ -7538,7 +7994,9 @@
       <c r="I228" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J228" s="5"/>
+      <c r="J228" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L228" s="5" t="s">
         <v>167</v>
       </c>
@@ -7568,7 +8026,9 @@
       <c r="I229" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="J229" s="5"/>
+      <c r="J229" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="K229" s="8" t="s">
         <v>101</v>
       </c>
@@ -7598,7 +8058,9 @@
       <c r="I230" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J230" s="5"/>
+      <c r="J230" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L230" s="5" t="s">
         <v>167</v>
       </c>
@@ -7625,7 +8087,9 @@
       <c r="I231" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J231" s="5"/>
+      <c r="J231" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L231" s="5" t="s">
         <v>167</v>
       </c>
@@ -7652,7 +8116,9 @@
       <c r="I232" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J232" s="5"/>
+      <c r="J232" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L232" s="5" t="s">
         <v>167</v>
       </c>
@@ -7682,7 +8148,9 @@
       <c r="I233" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="J233" s="5"/>
+      <c r="J233" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L233" s="5" t="s">
         <v>167</v>
       </c>
@@ -7709,7 +8177,9 @@
       <c r="I234" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J234" s="5"/>
+      <c r="J234" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L234" s="5" t="s">
         <v>167</v>
       </c>
@@ -7736,7 +8206,9 @@
       <c r="I235" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J235" s="5"/>
+      <c r="J235" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L235" s="5" t="s">
         <v>167</v>
       </c>
@@ -7763,7 +8235,9 @@
       <c r="I236" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J236" s="5"/>
+      <c r="J236" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L236" s="5" t="s">
         <v>167</v>
       </c>
@@ -7793,7 +8267,9 @@
       <c r="I237" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J237" s="5"/>
+      <c r="J237" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L237" s="5" t="s">
         <v>167</v>
       </c>
@@ -7820,7 +8296,9 @@
       <c r="I238" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J238" s="5"/>
+      <c r="J238" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L238" s="5" t="s">
         <v>167</v>
       </c>
@@ -7847,7 +8325,9 @@
       <c r="I239" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J239" s="5"/>
+      <c r="J239" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L239" s="5" t="s">
         <v>167</v>
       </c>
@@ -7878,7 +8358,9 @@
       <c r="I240" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J240" s="5"/>
+      <c r="J240" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L240" s="5" t="s">
         <v>167</v>
       </c>
@@ -7908,7 +8390,9 @@
       <c r="I241" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="J241" s="5"/>
+      <c r="J241" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L241" s="5" t="s">
         <v>167</v>
       </c>
@@ -7935,7 +8419,9 @@
       <c r="I242" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J242" s="5"/>
+      <c r="J242" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L242" s="5" t="s">
         <v>167</v>
       </c>
@@ -7962,7 +8448,9 @@
       <c r="I243" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J243" s="5"/>
+      <c r="J243" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L243" s="5" t="s">
         <v>167</v>
       </c>
@@ -7993,7 +8481,9 @@
       <c r="I244" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J244" s="5"/>
+      <c r="J244" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L244" s="5" t="s">
         <v>167</v>
       </c>
@@ -8023,7 +8513,9 @@
       <c r="I245" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J245" s="5"/>
+      <c r="J245" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L245" s="5" t="s">
         <v>167</v>
       </c>
@@ -8050,7 +8542,9 @@
       <c r="I246" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J246" s="5"/>
+      <c r="J246" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L246" s="5" t="s">
         <v>167</v>
       </c>
@@ -8077,7 +8571,9 @@
       <c r="I247" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J247" s="5"/>
+      <c r="J247" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L247" s="5" t="s">
         <v>167</v>
       </c>
@@ -8108,7 +8604,9 @@
       <c r="I248" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J248" s="5"/>
+      <c r="J248" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L248" s="5" t="s">
         <v>167</v>
       </c>
@@ -8138,7 +8636,9 @@
       <c r="I249" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J249" s="5"/>
+      <c r="J249" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L249" s="5" t="s">
         <v>167</v>
       </c>
@@ -8165,7 +8665,9 @@
       <c r="I250" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J250" s="5"/>
+      <c r="J250" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L250" s="5" t="s">
         <v>167</v>
       </c>
@@ -8192,7 +8694,9 @@
       <c r="I251" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J251" s="5"/>
+      <c r="J251" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L251" s="5" t="s">
         <v>167</v>
       </c>
@@ -8223,7 +8727,9 @@
       <c r="I252" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J252" s="5"/>
+      <c r="J252" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L252" s="5" t="s">
         <v>167</v>
       </c>
@@ -8253,7 +8759,9 @@
       <c r="I253" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J253" s="5"/>
+      <c r="J253" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L253" s="5" t="s">
         <v>167</v>
       </c>
@@ -8280,7 +8788,9 @@
       <c r="I254" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J254" s="5"/>
+      <c r="J254" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L254" s="5" t="s">
         <v>167</v>
       </c>
@@ -8307,7 +8817,9 @@
       <c r="I255" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J255" s="5"/>
+      <c r="J255" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L255" s="5" t="s">
         <v>167</v>
       </c>
@@ -8334,12 +8846,14 @@
       <c r="I256" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J256" s="5"/>
+      <c r="J256" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L256" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="257" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
         <v>24</v>
       </c>
@@ -8364,23 +8878,709 @@
       <c r="I257" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J257" s="5"/>
+      <c r="J257" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L257" s="5" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="258" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A258" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B258" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C258" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D258" s="13">
+        <v>0</v>
+      </c>
+      <c r="E258" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G258" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I258" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J258" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="L258" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="259" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A259" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B259" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C259" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D259" s="13">
+        <v>40.57</v>
+      </c>
+      <c r="E259" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G259" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I259" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J259" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="L259" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="R259" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="260" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A260" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B260" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C260" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D260" s="13">
+        <f>D259+37.54</f>
+        <v>78.11</v>
+      </c>
+      <c r="E260" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G260" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I260" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J260" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="L260" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="261" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A261" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B261" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C261" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D261" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E261" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G261" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I261" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="J261" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="L261" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="262" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A262" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B262" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C262" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D262" s="13">
+        <v>0</v>
+      </c>
+      <c r="E262" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G262" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I262" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="J262" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="L262" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="263" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A263" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B263" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C263" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D263" s="13">
+        <v>40.630000000000003</v>
+      </c>
+      <c r="E263" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G263" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I263" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J263" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="L263" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="R263" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="264" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A264" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B264" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C264" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D264" s="13">
+        <f>D263+39.89</f>
+        <v>80.52000000000001</v>
+      </c>
+      <c r="E264" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G264" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I264" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J264" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="L264" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="265" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A265" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B265" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C265" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D265" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E265" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G265" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I265" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="J265" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="L265" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="266" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A266" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B266" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C266" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D266" s="13">
+        <v>0</v>
+      </c>
+      <c r="E266" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G266" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I266" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J266" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="L266" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="267" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A267" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B267" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C267" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D267" s="13">
+        <v>40.46</v>
+      </c>
+      <c r="E267" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G267" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I267" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J267" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="L267" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="R267" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="268" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A268" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B268" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C268" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D268" s="13">
+        <f>D267+39.86</f>
+        <v>80.319999999999993</v>
+      </c>
+      <c r="E268" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G268" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I268" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J268" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="L268" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="269" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A269" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B269" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C269" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D269" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E269" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G269" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I269" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="J269" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="L269" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="270" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A270" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B270" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C270" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D270" s="13">
+        <v>0</v>
+      </c>
+      <c r="E270" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G270" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I270" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J270" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="L270" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="271" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A271" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B271" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C271" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D271" s="13">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="E271" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G271" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I271" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J271" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="L271" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="272" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A272" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B272" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C272" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D272" s="13">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="E272" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G272" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I272" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J272" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="L272" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="273" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A273" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B273" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C273" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D273" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E273" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G273" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I273" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="J273" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="L273" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="274" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A274" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B274" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C274" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D274" s="13">
+        <v>0</v>
+      </c>
+      <c r="E274" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G274" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I274" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="J274" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="L274" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="275" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A275" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B275" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C275" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D275" s="13">
+        <v>39.97</v>
+      </c>
+      <c r="E275" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G275" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I275" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J275" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="L275" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="R275" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="276" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A276" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B276" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C276" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D276" s="13">
+        <f>D275+10</f>
+        <v>49.97</v>
+      </c>
+      <c r="E276" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G276" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I276" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="J276" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="L276" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="277" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A277" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B277" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C277" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D277" s="13">
+        <f>D275+40.3</f>
+        <v>80.27</v>
+      </c>
+      <c r="E277" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G277" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I277" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J277" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="L277" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="278" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A278" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B278" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C278" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D278" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E278" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G278" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I278" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J278" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="L278" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="279" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A279" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B279" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C279" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D279" s="13">
+        <v>0</v>
+      </c>
+      <c r="E279" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G279" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I279" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="J279" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="L279" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="280" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A280" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B280" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C280" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D280" s="13">
+        <v>39.880000000000003</v>
+      </c>
+      <c r="E280" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G280" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I280" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J280" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="L280" s="12" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="281" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A281" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B281" s="12" t="s">
         <v>172</v>
       </c>
       <c r="C281" s="12" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="D281" s="13">
-        <v>0</v>
+        <v>79.760000000000005</v>
       </c>
       <c r="E281" s="12" t="s">
         <v>19</v>
@@ -8389,877 +9589,243 @@
         <v>19</v>
       </c>
       <c r="I281" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J281" s="12"/>
+        <v>22</v>
+      </c>
+      <c r="J281" s="12" t="s">
+        <v>187</v>
+      </c>
       <c r="L281" s="12" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="282" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A282" s="12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B282" s="12" t="s">
         <v>172</v>
       </c>
       <c r="C282" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="D282" s="13">
-        <v>40.57</v>
+        <v>184</v>
+      </c>
+      <c r="D282" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="E282" s="12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G282" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I282" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J282" s="12"/>
+        <v>180</v>
+      </c>
+      <c r="J282" s="12" t="s">
+        <v>187</v>
+      </c>
       <c r="L282" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="R282" s="12" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="283" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A283" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B283" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C283" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="D283" s="13">
-        <f>D282+37.54</f>
-        <v>78.11</v>
-      </c>
-      <c r="E283" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G283" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I283" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J283" s="12"/>
-      <c r="L283" s="12" t="s">
-        <v>174</v>
+      <c r="A283" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B283" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C283" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D283" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E283" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G283" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I283" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="J283" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="L283" s="14" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="284" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A284" s="12" t="s">
+      <c r="A284" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B284" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C284" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="D284" s="13" t="s">
+      <c r="B284" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C284" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D284" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E284" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G284" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I284" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="J284" s="12"/>
-      <c r="L284" s="12" t="s">
-        <v>174</v>
+      <c r="E284" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G284" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I284" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="J284" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="L284" s="14" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="285" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A285" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B285" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C285" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="D285" s="13">
-        <v>0</v>
-      </c>
-      <c r="E285" s="12" t="s">
+      <c r="A285" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B285" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C285" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D285" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E285" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G285" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I285" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="J285" s="12"/>
-      <c r="L285" s="12" t="s">
-        <v>174</v>
+      <c r="G285" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I285" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="J285" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="L285" s="14" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="286" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A286" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B286" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C286" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="D286" s="13">
-        <v>40.630000000000003</v>
-      </c>
-      <c r="E286" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G286" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I286" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J286" s="12"/>
-      <c r="L286" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="R286" s="12" t="s">
-        <v>29</v>
+      <c r="A286" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B286" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C286" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D286" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E286" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G286" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I286" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="J286" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="L286" s="14" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="287" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A287" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B287" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C287" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="D287" s="13">
-        <f>D286+39.89</f>
-        <v>80.52000000000001</v>
-      </c>
-      <c r="E287" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G287" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I287" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J287" s="12"/>
-      <c r="L287" s="12" t="s">
-        <v>174</v>
+      <c r="A287" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B287" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C287" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="D287" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E287" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G287" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I287" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="J287" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="L287" s="14" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="288" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A288" s="12" t="s">
+      <c r="A288" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B288" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C288" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="D288" s="13" t="s">
+      <c r="B288" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C288" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="D288" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E288" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G288" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I288" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="J288" s="12"/>
-      <c r="L288" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="289" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A289" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B289" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C289" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="D289" s="13">
-        <v>0</v>
-      </c>
-      <c r="E289" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G289" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I289" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J289" s="12"/>
-      <c r="L289" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="290" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A290" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B290" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C290" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="D290" s="13">
-        <v>40.46</v>
-      </c>
-      <c r="E290" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G290" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I290" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J290" s="12"/>
-      <c r="L290" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="R290" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="291" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A291" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B291" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C291" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="D291" s="13">
-        <f>D290+39.86</f>
-        <v>80.319999999999993</v>
-      </c>
-      <c r="E291" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G291" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I291" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J291" s="12"/>
-      <c r="L291" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="292" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A292" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B292" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C292" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="D292" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E292" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G292" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I292" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="J292" s="12"/>
-      <c r="L292" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="293" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A293" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B293" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C293" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="D293" s="13">
-        <v>0</v>
-      </c>
-      <c r="E293" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G293" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I293" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J293" s="12"/>
-      <c r="L293" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="294" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A294" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B294" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C294" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="D294" s="13">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="E294" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G294" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I294" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J294" s="12"/>
-      <c r="L294" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="295" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A295" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B295" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C295" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="D295" s="13">
-        <v>80.599999999999994</v>
-      </c>
-      <c r="E295" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G295" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I295" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J295" s="12"/>
-      <c r="L295" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="296" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A296" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B296" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C296" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="D296" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E296" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G296" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I296" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="J296" s="12"/>
-      <c r="L296" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="297" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A297" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B297" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C297" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="D297" s="13">
-        <v>0</v>
-      </c>
-      <c r="E297" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G297" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I297" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="J297" s="12"/>
-      <c r="L297" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="298" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A298" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B298" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C298" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="D298" s="13">
-        <v>39.97</v>
-      </c>
-      <c r="E298" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G298" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I298" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J298" s="12"/>
-      <c r="L298" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="R298" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="299" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A299" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B299" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C299" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="D299" s="13">
-        <f>D298+10</f>
-        <v>49.97</v>
-      </c>
-      <c r="E299" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G299" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I299" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="J299" s="12"/>
-      <c r="L299" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="300" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A300" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B300" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C300" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="D300" s="13">
-        <f>D298+40.3</f>
-        <v>80.27</v>
-      </c>
-      <c r="E300" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G300" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I300" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J300" s="12"/>
-      <c r="L300" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="301" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A301" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B301" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C301" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="D301" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E301" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G301" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I301" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J301" s="12"/>
-      <c r="L301" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="302" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A302" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B302" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C302" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="D302" s="13">
-        <v>0</v>
-      </c>
-      <c r="E302" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G302" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I302" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="J302" s="12"/>
-      <c r="L302" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="303" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A303" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B303" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C303" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="D303" s="13">
-        <v>39.880000000000003</v>
-      </c>
-      <c r="E303" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G303" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I303" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J303" s="12"/>
-      <c r="L303" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="304" spans="1:18" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A304" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B304" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C304" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="D304" s="13">
-        <v>79.760000000000005</v>
-      </c>
-      <c r="E304" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G304" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I304" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J304" s="12"/>
-      <c r="L304" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="305" spans="1:12" s="14" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A305" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B305" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C305" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="D305" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E305" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G305" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I305" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="J305" s="12"/>
-      <c r="L305" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="306" spans="1:12" s="14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A306" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B306" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="C306" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D306" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E306" s="14" t="s">
+      <c r="E288" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G306" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I306" s="14" t="s">
+      <c r="G288" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I288" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="J306" s="14" t="s">
+      <c r="J288" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="L306" s="14" t="s">
+      <c r="L288" s="14" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="307" spans="1:12" s="14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A307" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B307" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="C307" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D307" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E307" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G307" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I307" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="J307" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="L307" s="14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="308" spans="1:12" s="14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A308" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B308" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="C308" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D308" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E308" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G308" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I308" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="J308" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="L308" s="14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="309" spans="1:12" s="14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A309" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B309" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="C309" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D309" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E309" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G309" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I309" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="J309" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="L309" s="14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="310" spans="1:12" s="14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A310" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B310" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="C310" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="D310" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E310" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G310" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I310" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="J310" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="L310" s="14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="311" spans="1:12" s="14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A311" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B311" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="C311" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="D311" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E311" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G311" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I311" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="J311" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="L311" s="14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="312" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D312" s="7"/>
     </row>
-    <row r="313" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D313" s="7"/>
     </row>
-    <row r="314" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D314" s="7"/>
     </row>
-    <row r="315" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D315" s="7"/>
     </row>
-    <row r="316" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D316" s="7"/>
     </row>
-    <row r="317" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D317" s="7"/>
     </row>
-    <row r="318" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D318" s="7"/>
     </row>
-    <row r="319" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D319" s="7"/>
     </row>
-    <row r="320" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D320" s="7"/>
     </row>
     <row r="321" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11352,7 +11918,7 @@
   </sheetPr>
   <dimension ref="A1:AD980"/>
   <sheetViews>
-    <sheetView topLeftCell="A204" workbookViewId="0">
+    <sheetView topLeftCell="A99" workbookViewId="0">
       <selection activeCell="C222" sqref="C222"/>
     </sheetView>
   </sheetViews>

--- a/data/T31R11_data.xlsx
+++ b/data/T31R11_data.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Ecology\Student_folders_&amp;_files\Kara 2020\GLO\Sage_GLO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB65BC1-1FEE-43FC-821D-5FA0750D1412}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD574C5-0DCE-4CE3-BECF-EA584709A7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="1830" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1940Survey" sheetId="1" r:id="rId1"/>
     <sheet name="1940notes" sheetId="3" r:id="rId2"/>
     <sheet name="1880Survey" sheetId="2" r:id="rId3"/>
     <sheet name="1880notes" sheetId="4" r:id="rId4"/>
-    <sheet name="2004Survey" sheetId="5" r:id="rId5"/>
+    <sheet name="2019Survey" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -20930,8 +20930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511609CA-7794-486D-886E-A60892E6FA63}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A73"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21015,7 +21015,7 @@
         <v>151</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -21092,7 +21092,7 @@
         <v>158</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -21268,7 +21268,7 @@
         <v>70</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -21323,7 +21323,7 @@
         <v>95</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -21334,7 +21334,7 @@
         <v>109</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -21345,7 +21345,7 @@
         <v>110</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -21367,7 +21367,7 @@
         <v>107</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -21477,7 +21477,7 @@
         <v>106</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -21488,7 +21488,7 @@
         <v>119</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -21532,7 +21532,7 @@
         <v>65</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -21664,7 +21664,7 @@
         <v>61</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">

--- a/data/T31R11_data.xlsx
+++ b/data/T31R11_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Ecology\Student_folders_&amp;_files\Kara 2020\GLO\Sage_GLO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD574C5-0DCE-4CE3-BECF-EA584709A7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152FB403-0BB2-436D-9260-8B77C4ADD702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4642" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4642" uniqueCount="203">
   <si>
     <t>Survey_type</t>
   </si>
@@ -720,9 +720,6 @@
     <t>WWB</t>
   </si>
   <si>
-    <t>31-11-39-W</t>
-  </si>
-  <si>
     <t>31-11-01-S</t>
   </si>
 </sst>
@@ -20930,8 +20927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511609CA-7794-486D-886E-A60892E6FA63}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20957,7 +20954,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>19</v>
@@ -20982,7 +20979,7 @@
         <v>145</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -21356,7 +21353,7 @@
         <v>120</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -21496,10 +21493,10 @@
         <v>24</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>202</v>
+        <v>103</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -21675,7 +21672,7 @@
         <v>33</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
